--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.354791502597546</v>
+        <v>7.354791502597521</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.37679900685241</v>
+        <v>18.37679900685274</v>
       </c>
       <c r="E2">
-        <v>49.60475165498086</v>
+        <v>49.60475165498153</v>
       </c>
       <c r="F2">
-        <v>104.5334474847484</v>
+        <v>104.5334474847499</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>88.08587979224453</v>
+        <v>88.08587979224561</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.944275680773712</v>
+        <v>6.944275680773665</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.93341780707219</v>
+        <v>13.93341780707214</v>
       </c>
       <c r="E3">
-        <v>43.3443879827871</v>
+        <v>43.34438798278697</v>
       </c>
       <c r="F3">
-        <v>81.94353093069775</v>
+        <v>81.94353093069782</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>75.41333227369559</v>
+        <v>75.41333227369545</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.700902391834779</v>
+        <v>6.700902391834777</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.3052259146459</v>
+        <v>12.30522591464582</v>
       </c>
       <c r="E4">
-        <v>40.43620443149481</v>
+        <v>40.4362044314944</v>
       </c>
       <c r="F4">
-        <v>73.41188307866233</v>
+        <v>73.41188307866211</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>69.89014814834754</v>
+        <v>69.89014814834698</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.601760703083108</v>
+        <v>6.601760703083107</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.72244837089313</v>
+        <v>11.72244837089299</v>
       </c>
       <c r="E5">
-        <v>39.30928056900112</v>
+        <v>39.30928056900066</v>
       </c>
       <c r="F5">
-        <v>70.32542312001672</v>
+        <v>70.32542312001617</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>67.78804455678713</v>
+        <v>67.78804455678653</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.585283582940093</v>
+        <v>6.585283582940161</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>11.62899556502828</v>
       </c>
       <c r="E6">
-        <v>39.12420404776227</v>
+        <v>39.12420404776159</v>
       </c>
       <c r="F6">
-        <v>69.82890902768878</v>
+        <v>69.82890902768902</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>67.44456206111846</v>
+        <v>67.44456206111775</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.699566048195116</v>
+        <v>6.699566048195045</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.2971178443957</v>
+        <v>12.29711784439575</v>
       </c>
       <c r="E7">
-        <v>40.42084418430699</v>
+        <v>40.42084418430696</v>
       </c>
       <c r="F7">
-        <v>73.36905882845039</v>
+        <v>73.36905882845028</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>69.86136753436141</v>
+        <v>69.86136753436139</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E8">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F8">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E9">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F9">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E10">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F10">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E11">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F11">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E12">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F12">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,10 +839,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E13">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F13">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E14">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F14">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E15">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F15">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E16">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F16">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E17">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F17">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E18">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F18">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E19">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F19">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E20">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F20">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E21">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F21">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E22">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F22">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E23">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F23">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E24">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F24">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.207965698948395</v>
+        <v>7.207965698948324</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1295,10 +1295,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E25">
-        <v>46.96364895932884</v>
+        <v>46.96364895932857</v>
       </c>
       <c r="F25">
-        <v>94.06294907564508</v>
+        <v>94.06294907564472</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>82.56070179067655</v>
+        <v>82.56070179067622</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.354791502597521</v>
+        <v>7.354791502597546</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.37679900685274</v>
+        <v>18.37679900685241</v>
       </c>
       <c r="E2">
-        <v>49.60475165498153</v>
+        <v>49.60475165498086</v>
       </c>
       <c r="F2">
-        <v>104.5334474847499</v>
+        <v>104.5334474847484</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>88.08587979224561</v>
+        <v>88.08587979224453</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.944275680773665</v>
+        <v>6.944275680773712</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.93341780707214</v>
+        <v>13.93341780707219</v>
       </c>
       <c r="E3">
-        <v>43.34438798278697</v>
+        <v>43.3443879827871</v>
       </c>
       <c r="F3">
-        <v>81.94353093069782</v>
+        <v>81.94353093069775</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>75.41333227369545</v>
+        <v>75.41333227369559</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.700902391834777</v>
+        <v>6.700902391834779</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.30522591464582</v>
+        <v>12.3052259146459</v>
       </c>
       <c r="E4">
-        <v>40.4362044314944</v>
+        <v>40.43620443149481</v>
       </c>
       <c r="F4">
-        <v>73.41188307866211</v>
+        <v>73.41188307866233</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>69.89014814834698</v>
+        <v>69.89014814834754</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.601760703083107</v>
+        <v>6.601760703083108</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.72244837089299</v>
+        <v>11.72244837089313</v>
       </c>
       <c r="E5">
-        <v>39.30928056900066</v>
+        <v>39.30928056900112</v>
       </c>
       <c r="F5">
-        <v>70.32542312001617</v>
+        <v>70.32542312001672</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>67.78804455678653</v>
+        <v>67.78804455678713</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.585283582940161</v>
+        <v>6.585283582940093</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>11.62899556502828</v>
       </c>
       <c r="E6">
-        <v>39.12420404776159</v>
+        <v>39.12420404776227</v>
       </c>
       <c r="F6">
-        <v>69.82890902768902</v>
+        <v>69.82890902768878</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>67.44456206111775</v>
+        <v>67.44456206111846</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.699566048195045</v>
+        <v>6.699566048195116</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.29711784439575</v>
+        <v>12.2971178443957</v>
       </c>
       <c r="E7">
-        <v>40.42084418430696</v>
+        <v>40.42084418430699</v>
       </c>
       <c r="F7">
-        <v>73.36905882845028</v>
+        <v>73.36905882845039</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>69.86136753436139</v>
+        <v>69.86136753436141</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E8">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F8">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E9">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F9">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E10">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F10">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E11">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F11">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E12">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F12">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,10 +839,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E13">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F13">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E14">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F14">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E15">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F15">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E16">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F16">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E17">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F17">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E18">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F18">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E19">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F19">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E20">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F20">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E21">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F21">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E22">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F22">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E23">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F23">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E24">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F24">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.207965698948324</v>
+        <v>7.207965698948395</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1295,10 +1295,10 @@
         <v>16.2925042423744</v>
       </c>
       <c r="E25">
-        <v>46.96364895932857</v>
+        <v>46.96364895932884</v>
       </c>
       <c r="F25">
-        <v>94.06294907564472</v>
+        <v>94.06294907564508</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>82.56070179067622</v>
+        <v>82.56070179067655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.354791502597546</v>
+        <v>7.347983808891918</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.37679900685241</v>
+        <v>17.56264208704231</v>
       </c>
       <c r="E2">
-        <v>49.60475165498086</v>
+        <v>49.00842672276845</v>
       </c>
       <c r="F2">
-        <v>104.5334474847484</v>
+        <v>100.8705097855903</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.530992759101548</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,30 +445,33 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>88.08587979224453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>86.64240125638682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.944275680773712</v>
+        <v>6.94187979110673</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.93341780707219</v>
+        <v>13.53346128623173</v>
       </c>
       <c r="E3">
-        <v>43.3443879827871</v>
+        <v>43.11375296146709</v>
       </c>
       <c r="F3">
-        <v>81.94353093069775</v>
+        <v>80.36578159079113</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.686393894196009</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,30 +486,33 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>75.41333227369559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>74.84245622022607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.700902391834779</v>
+        <v>6.699195315502439</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.3052259146459</v>
+        <v>11.9595426488942</v>
       </c>
       <c r="E4">
-        <v>40.43620443149481</v>
+        <v>40.25263637928614</v>
       </c>
       <c r="F4">
-        <v>73.41188307866233</v>
+        <v>72.13360216094203</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.746696809324203</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,30 +527,33 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>69.89014814834754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>69.43111893417972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.601760703083108</v>
+        <v>6.600266864089445</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.72244837089313</v>
+        <v>11.39257806003913</v>
       </c>
       <c r="E5">
-        <v>39.30928056900112</v>
+        <v>39.13888795769392</v>
       </c>
       <c r="F5">
-        <v>70.32542312001672</v>
+        <v>69.13813166196384</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.768340839138179</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,30 +568,33 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>67.78804455678713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>67.36049545861152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.585283582940093</v>
+        <v>6.583822811914001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.62899556502828</v>
+        <v>11.30153789711884</v>
       </c>
       <c r="E6">
-        <v>39.12420404776227</v>
+        <v>38.95578639652353</v>
       </c>
       <c r="F6">
-        <v>69.82890902768878</v>
+        <v>68.65568551747793</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.771812059791656</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,30 +609,33 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>67.44456206111846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>67.02174455533002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.699566048195116</v>
+        <v>6.697862030677586</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.2971178443957</v>
+        <v>11.95166463715453</v>
       </c>
       <c r="E7">
-        <v>40.42084418430699</v>
+        <v>40.23747033939016</v>
       </c>
       <c r="F7">
-        <v>73.36905882845039</v>
+        <v>72.09208736205669</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.746997860178642</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,30 +650,33 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>69.86136753436141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>69.40280143981671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E8">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F8">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,30 +691,33 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E9">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F9">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,30 +732,33 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E10">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F10">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,30 +773,33 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E11">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F11">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,30 +814,33 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E12">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F12">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,30 +855,33 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E13">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F13">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,30 +896,33 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E14">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F14">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,30 +937,33 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E15">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F15">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,30 +978,33 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E16">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F16">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,30 +1019,33 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E17">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F17">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,30 +1060,33 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E18">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F18">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,30 +1101,33 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E19">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F19">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,30 +1142,33 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E20">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F20">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,30 +1183,33 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E21">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F21">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,30 +1224,33 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E22">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F22">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,30 +1265,33 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E23">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F23">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,30 +1306,33 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E24">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F24">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,30 +1347,33 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>82.56070179067655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>81.70777821840753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.207965698948395</v>
+        <v>7.204053657390358</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.2925042423744</v>
+        <v>15.75888722034905</v>
       </c>
       <c r="E25">
-        <v>46.96364895932884</v>
+        <v>46.61427087138195</v>
       </c>
       <c r="F25">
-        <v>94.06294907564508</v>
+        <v>91.79236969647599</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.600696257083599</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>82.56070179067655</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>81.70777821840753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,635 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>7.347983808891918</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>17.56264208704231</v>
+        <v>14.33171196860311</v>
       </c>
       <c r="E2">
-        <v>49.00842672276845</v>
+        <v>36.73965711029559</v>
       </c>
       <c r="F2">
-        <v>100.8705097855903</v>
+        <v>88.10722204725752</v>
       </c>
       <c r="G2">
-        <v>1.530992759101548</v>
+        <v>1.72936046566691</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>86.64240125638682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>72.18236146710835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>6.94187979110673</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>13.53346128623173</v>
+        <v>12.84758298445006</v>
       </c>
       <c r="E3">
-        <v>43.11375296146709</v>
+        <v>32.77407982767971</v>
       </c>
       <c r="F3">
-        <v>80.36578159079113</v>
+        <v>79.20908609802694</v>
       </c>
       <c r="G3">
-        <v>1.686393894196009</v>
+        <v>1.784778164329242</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>74.84245622022607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>64.86680804731471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>6.699195315502439</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>11.9595426488942</v>
+        <v>11.99132563407842</v>
       </c>
       <c r="E4">
-        <v>40.25263637928614</v>
+        <v>30.51317696573009</v>
       </c>
       <c r="F4">
-        <v>72.13360216094203</v>
+        <v>74.02417954658638</v>
       </c>
       <c r="G4">
-        <v>1.746696809324203</v>
+        <v>1.81532970490288</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>69.43111893417972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>60.60568150867706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>6.600266864089445</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>11.39257806003913</v>
+        <v>11.64897765160507</v>
       </c>
       <c r="E5">
-        <v>39.13888795769392</v>
+        <v>29.61382804850759</v>
       </c>
       <c r="F5">
-        <v>69.13813166196384</v>
+        <v>71.94270121506948</v>
       </c>
       <c r="G5">
-        <v>1.768340839138179</v>
+        <v>1.827248274225525</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>67.36049545861152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>58.89514609826102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>6.583822811914001</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
-        <v>11.30153789711884</v>
+        <v>11.59238420647977</v>
       </c>
       <c r="E6">
-        <v>38.95578639652353</v>
+        <v>29.46539045783521</v>
       </c>
       <c r="F6">
-        <v>68.65568551747793</v>
+        <v>71.59819794797393</v>
       </c>
       <c r="G6">
-        <v>1.771812059791656</v>
+        <v>1.829202100736707</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>67.02174455533002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>58.61203573897681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6.697862030677586</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>11.95166463715453</v>
+        <v>11.98668881722297</v>
       </c>
       <c r="E7">
-        <v>40.23747033939016</v>
+        <v>30.50097943511917</v>
       </c>
       <c r="F7">
-        <v>72.09208736205669</v>
+        <v>73.99601752086264</v>
       </c>
       <c r="G7">
-        <v>1.746997860178642</v>
+        <v>1.815492269075289</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>69.40280143981671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>60.58253822930341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>15.75888722034905</v>
+        <v>13.80262271817287</v>
       </c>
       <c r="E8">
-        <v>46.61427087138195</v>
+        <v>35.31823407690642</v>
       </c>
       <c r="F8">
-        <v>91.79236969647599</v>
+        <v>84.94971473300137</v>
       </c>
       <c r="G8">
-        <v>1.600696257083599</v>
+        <v>1.749469801165061</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>69.58583725824897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E9">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F9">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G9">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E10">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F10">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G10">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E11">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F11">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G11">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E12">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F12">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G12">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E13">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F13">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G13">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E14">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F14">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G14">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E15">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F15">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G15">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E16">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F16">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G16">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E17">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F17">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G17">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E18">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F18">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G18">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E19">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F19">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G19">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E20">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F20">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G20">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E21">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F21">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G21">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
       <c r="D22">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E22">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F22">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G22">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E23">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F23">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G23">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E24">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F24">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G24">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>81.70777821840753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>94.69910453543906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>7.204053657390358</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
-        <v>15.75888722034905</v>
+        <v>19.09373430072926</v>
       </c>
       <c r="E25">
-        <v>46.61427087138195</v>
+        <v>50.19712024148586</v>
       </c>
       <c r="F25">
-        <v>91.79236969647599</v>
+        <v>115.4102312513161</v>
       </c>
       <c r="G25">
-        <v>1.600696257083599</v>
+        <v>1.532365930280641</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>81.70777821840753</v>
+      <c r="O25">
+        <v>94.69910453543906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -420,624 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>14.67104496537784</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>14.33171196860311</v>
+        <v>4.532234421316475</v>
       </c>
       <c r="E2">
-        <v>36.73965711029559</v>
+        <v>6.319149357049331</v>
       </c>
       <c r="F2">
-        <v>88.10722204725752</v>
+        <v>24.08231052338038</v>
       </c>
       <c r="G2">
-        <v>1.72936046566691</v>
+        <v>2.036525397528465</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>31.90750824808628</v>
+      </c>
       <c r="J2">
+        <v>4.804666856122615</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>38.38692685679835</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>72.18236146710835</v>
+        <v>18.81060933461331</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>13.70538018952759</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>12.84758298445006</v>
+        <v>4.644346324546041</v>
       </c>
       <c r="E3">
-        <v>32.77407982767971</v>
+        <v>6.547815091871219</v>
       </c>
       <c r="F3">
-        <v>79.20908609802694</v>
+        <v>23.047471565338</v>
       </c>
       <c r="G3">
-        <v>1.784778164329242</v>
+        <v>2.044870975017324</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>30.11756066889739</v>
+      </c>
       <c r="J3">
+        <v>4.954090318589962</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>35.89675913107484</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>64.86680804731471</v>
+        <v>17.97958386933634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>13.079187302523</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
-        <v>11.99132563407842</v>
+        <v>4.715166433850754</v>
       </c>
       <c r="E4">
-        <v>30.51317696573009</v>
+        <v>6.694271698105466</v>
       </c>
       <c r="F4">
-        <v>74.02417954658638</v>
+        <v>22.43033916633679</v>
       </c>
       <c r="G4">
-        <v>1.81532970490288</v>
+        <v>2.050125171775521</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>28.97942369837371</v>
+      </c>
       <c r="J4">
+        <v>5.049206278128331</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>34.28449086156514</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>60.60568150867706</v>
+        <v>17.47844771206884</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>12.81560796493782</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>11.64897765160507</v>
+        <v>4.744537392043246</v>
       </c>
       <c r="E5">
-        <v>29.61382804850759</v>
+        <v>6.755430141168466</v>
       </c>
       <c r="F5">
-        <v>71.94270121506948</v>
+        <v>22.18369163487139</v>
       </c>
       <c r="G5">
-        <v>1.827248274225525</v>
+        <v>2.052300608572181</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>28.50620144170955</v>
+      </c>
       <c r="J5">
+        <v>5.08880065285923</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>33.60467292086349</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>58.89514609826102</v>
+        <v>17.27673986800374</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>12.77133263868582</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
-        <v>11.59238420647977</v>
+        <v>4.749445647427458</v>
       </c>
       <c r="E6">
-        <v>29.46539045783521</v>
+        <v>6.765673451728138</v>
       </c>
       <c r="F6">
-        <v>71.59819794797393</v>
+        <v>22.14303568339739</v>
       </c>
       <c r="G6">
-        <v>1.829202100736707</v>
+        <v>2.052663955835746</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>28.42706820985958</v>
+      </c>
       <c r="J6">
+        <v>5.095425315543839</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>33.4904111618065</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>58.61203573897681</v>
+        <v>17.24340473532286</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>13.07566663142491</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>11.98668881722297</v>
+        <v>4.715560454900515</v>
       </c>
       <c r="E7">
-        <v>30.50097943511917</v>
+        <v>6.695090578924617</v>
       </c>
       <c r="F7">
-        <v>73.99601752086264</v>
+        <v>22.42699286387638</v>
       </c>
       <c r="G7">
-        <v>1.815492269075289</v>
+        <v>2.050154369490606</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>28.9730791892479</v>
+      </c>
       <c r="J7">
+        <v>5.049736900222626</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>34.27541499250973</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>60.58253822930341</v>
+        <v>17.47571694717673</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>14.34496516934109</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
-        <v>13.80262271817287</v>
+        <v>4.570486813490322</v>
       </c>
       <c r="E8">
-        <v>35.31823407690642</v>
+        <v>6.396705249610244</v>
       </c>
       <c r="F8">
-        <v>84.94971473300137</v>
+        <v>23.72185012143089</v>
       </c>
       <c r="G8">
-        <v>1.749469801165061</v>
+        <v>2.039376989448797</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>31.29866479349183</v>
+      </c>
       <c r="J8">
+        <v>4.855479352060729</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>37.53939012645811</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>69.58583725824897</v>
+        <v>18.52230169116301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>16.57213506799508</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
-        <v>19.09373430072926</v>
+        <v>4.301127919614196</v>
       </c>
       <c r="E9">
-        <v>50.19712024148586</v>
+        <v>5.862373066063186</v>
       </c>
       <c r="F9">
-        <v>115.4102312513161</v>
+        <v>26.39647473837211</v>
       </c>
       <c r="G9">
-        <v>1.532365930280641</v>
+        <v>2.019194157773655</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>35.53582811940114</v>
+      </c>
       <c r="J9">
+        <v>4.5021392932677</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>43.34255409668599</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>94.69910453543906</v>
+        <v>20.63905687216149</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>18.05224444210068</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
-        <v>19.09373430072926</v>
+        <v>4.111558912693566</v>
       </c>
       <c r="E10">
-        <v>50.19712024148586</v>
+        <v>5.505939980342768</v>
       </c>
       <c r="F10">
-        <v>115.4102312513161</v>
+        <v>28.43446365823227</v>
       </c>
       <c r="G10">
-        <v>1.532365930280641</v>
+        <v>2.004824086650291</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>38.44039949099775</v>
+      </c>
       <c r="J10">
+        <v>4.261096082193537</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>47.16911397846449</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>94.69910453543906</v>
+        <v>22.22583682420625</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>18.69257175827025</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>19.09373430072926</v>
+        <v>4.026916653207996</v>
       </c>
       <c r="E11">
-        <v>50.19712024148586</v>
+        <v>5.353291420587893</v>
       </c>
       <c r="F11">
-        <v>115.4102312513161</v>
+        <v>29.37651423332462</v>
       </c>
       <c r="G11">
-        <v>1.532365930280641</v>
+        <v>1.998355902755213</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>39.71557590011435</v>
+      </c>
       <c r="J11">
+        <v>4.156057989250601</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>48.81601022372152</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>94.69910453543906</v>
+        <v>23.10073085588735</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>18.93038643231264</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
-        <v>19.09373430072926</v>
+        <v>3.995075560348441</v>
       </c>
       <c r="E12">
-        <v>50.19712024148586</v>
+        <v>5.297040058353685</v>
       </c>
       <c r="F12">
-        <v>115.4102312513161</v>
+        <v>29.73540412276682</v>
       </c>
       <c r="G12">
-        <v>1.532365930280641</v>
+        <v>1.99591363818284</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12">
+        <v>40.19182035136249</v>
+      </c>
       <c r="J12">
+        <v>4.117015754834178</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>49.42633957603743</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>94.69910453543906</v>
+        <v>23.44209751538262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>18.87937485318113</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
-        <v>19.09373430072926</v>
+        <v>4.001924020307054</v>
       </c>
       <c r="E13">
-        <v>50.19712024148586</v>
+        <v>5.309082211431233</v>
       </c>
       <c r="F13">
-        <v>115.4102312513161</v>
+        <v>29.65801401070009</v>
       </c>
       <c r="G13">
-        <v>1.532365930280641</v>
+        <v>1.996439355866299</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>40.08954726735175</v>
+      </c>
       <c r="J13">
+        <v>4.125390256616681</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>49.29548345404797</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>94.69910453543906</v>
+        <v>23.36868664097366</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>18.71222989606524</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
-        <v>19.09373430072926</v>
+        <v>4.024292944071313</v>
       </c>
       <c r="E14">
-        <v>50.19712024148586</v>
+        <v>5.348631211864057</v>
       </c>
       <c r="F14">
-        <v>115.4102312513161</v>
+        <v>29.40599682269485</v>
       </c>
       <c r="G14">
-        <v>1.532365930280641</v>
+        <v>1.998154851103003</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>39.75488966730246</v>
+      </c>
       <c r="J14">
+        <v>4.152830792555505</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>48.8664881745055</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>94.69910453543906</v>
+        <v>23.12886451372144</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>18.60924394928649</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>19.09373430072926</v>
+        <v>4.038021491604415</v>
       </c>
       <c r="E15">
-        <v>50.19712024148586</v>
+        <v>5.373064781410205</v>
       </c>
       <c r="F15">
-        <v>115.4102312513161</v>
+        <v>29.25191117460565</v>
       </c>
       <c r="G15">
-        <v>1.532365930280641</v>
+        <v>1.999206477240843</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>39.5490386747283</v>
+      </c>
       <c r="J15">
+        <v>4.169736829864271</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>48.60198768696092</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>94.69910453543906</v>
+        <v>22.9816451563836</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>18.00974049107521</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
-        <v>19.09373430072926</v>
+        <v>4.117121031433262</v>
       </c>
       <c r="E16">
-        <v>50.19712024148586</v>
+        <v>5.516122020911591</v>
       </c>
       <c r="F16">
-        <v>115.4102312513161</v>
+        <v>28.37319817707215</v>
       </c>
       <c r="G16">
-        <v>1.532365930280641</v>
+        <v>2.00524795009286</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>38.35613390482893</v>
+      </c>
       <c r="J16">
+        <v>4.268058964372024</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>47.05961235762955</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>94.69910453543906</v>
+        <v>22.17838084794587</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>17.6335713447067</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
-        <v>19.09373430072926</v>
+        <v>4.166041688085607</v>
       </c>
       <c r="E17">
-        <v>50.19712024148586</v>
+        <v>5.606434636654495</v>
       </c>
       <c r="F17">
-        <v>115.4102312513161</v>
+        <v>27.83794791843049</v>
       </c>
       <c r="G17">
-        <v>1.532365930280641</v>
+        <v>2.008969927293657</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>37.61249058378087</v>
+      </c>
       <c r="J17">
+        <v>4.329602133053399</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>46.08950709357303</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>94.69910453543906</v>
+        <v>21.76318104966614</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>17.41409920812071</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
-        <v>19.09373430072926</v>
+        <v>4.194330702101352</v>
       </c>
       <c r="E18">
-        <v>50.19712024148586</v>
+        <v>5.659260035605387</v>
       </c>
       <c r="F18">
-        <v>115.4102312513161</v>
+        <v>27.53148951990431</v>
       </c>
       <c r="G18">
-        <v>1.532365930280641</v>
+        <v>2.011117373605875</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>37.18042143939196</v>
+      </c>
       <c r="J18">
+        <v>4.365429208086363</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>45.52268570731488</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>94.69910453543906</v>
+        <v>21.52495195172956</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>17.33925333439905</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
-        <v>19.09373430072926</v>
+        <v>4.203935368646277</v>
       </c>
       <c r="E19">
-        <v>50.19712024148586</v>
+        <v>5.67729194146655</v>
       </c>
       <c r="F19">
-        <v>115.4102312513161</v>
+        <v>27.42797005807605</v>
       </c>
       <c r="G19">
-        <v>1.532365930280641</v>
+        <v>2.011845687031281</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>37.03338498953467</v>
+      </c>
       <c r="J19">
+        <v>4.377631500349664</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>45.32924578603195</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>94.69910453543906</v>
+        <v>21.44439237372954</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>17.67393647082742</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>19.09373430072926</v>
+        <v>4.16081848506397</v>
       </c>
       <c r="E20">
-        <v>50.19712024148586</v>
+        <v>5.596728413344961</v>
       </c>
       <c r="F20">
-        <v>115.4102312513161</v>
+        <v>27.89478117693629</v>
       </c>
       <c r="G20">
-        <v>1.532365930280641</v>
+        <v>2.00857304616526</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20">
+        <v>37.69210259675604</v>
+      </c>
       <c r="J20">
+        <v>4.323005902975996</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>46.19369036855677</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>94.69910453543906</v>
+        <v>21.80731955765578</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>18.76145031693346</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21">
-        <v>19.09373430072926</v>
+        <v>4.017717069310827</v>
       </c>
       <c r="E21">
-        <v>50.19712024148586</v>
+        <v>5.336970823101584</v>
       </c>
       <c r="F21">
-        <v>115.4102312513161</v>
+        <v>29.479961464329</v>
       </c>
       <c r="G21">
-        <v>1.532365930280641</v>
+        <v>1.997650799833796</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="I21">
+        <v>39.85336661141902</v>
+      </c>
       <c r="J21">
+        <v>4.144750283369776</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>48.9928543710094</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>94.69910453543906</v>
+        <v>23.19937269207355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>19.44506360744591</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
-        <v>19.09373430072926</v>
+        <v>3.925413269000307</v>
       </c>
       <c r="E22">
-        <v>50.19712024148586</v>
+        <v>5.176381164047323</v>
       </c>
       <c r="F22">
-        <v>115.4102312513161</v>
+        <v>30.59458279404636</v>
       </c>
       <c r="G22">
-        <v>1.532365930280641</v>
+        <v>1.990552313183333</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
+      <c r="I22">
+        <v>41.22722665942594</v>
+      </c>
       <c r="J22">
+        <v>4.032572127109293</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>50.74475305336155</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>94.69910453543906</v>
+        <v>24.18850129942568</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>19.08266156148937</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
-        <v>19.09373430072926</v>
+        <v>3.97457205503491</v>
       </c>
       <c r="E23">
-        <v>50.19712024148586</v>
+        <v>5.261176361628046</v>
       </c>
       <c r="F23">
-        <v>115.4102312513161</v>
+        <v>29.96774133699906</v>
       </c>
       <c r="G23">
-        <v>1.532365930280641</v>
+        <v>1.994338272541212</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
+      <c r="I23">
+        <v>40.49749574474583</v>
+      </c>
       <c r="J23">
+        <v>4.092019841821668</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>49.81676303311039</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>94.69910453543906</v>
+        <v>23.66184570564839</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>17.65569739382404</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
-        <v>19.09373430072926</v>
+        <v>4.163179383355684</v>
       </c>
       <c r="E24">
-        <v>50.19712024148586</v>
+        <v>5.601113796362801</v>
       </c>
       <c r="F24">
-        <v>115.4102312513161</v>
+        <v>27.86908292271465</v>
       </c>
       <c r="G24">
-        <v>1.532365930280641</v>
+        <v>2.008752452143476</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
+      <c r="I24">
+        <v>37.65612414176607</v>
+      </c>
       <c r="J24">
+        <v>4.325986677270325</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>46.14661745195229</v>
+      </c>
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>94.69910453543906</v>
+        <v>21.78736305937706</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>15.99733676743204</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
-        <v>19.09373430072926</v>
+        <v>4.372466055315011</v>
       </c>
       <c r="E25">
-        <v>50.19712024148586</v>
+        <v>6.001034521305977</v>
       </c>
       <c r="F25">
-        <v>115.4102312513161</v>
+        <v>25.65959025440797</v>
       </c>
       <c r="G25">
-        <v>1.532365930280641</v>
+        <v>2.024564178039951</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
+      <c r="I25">
+        <v>34.42564210819867</v>
+      </c>
       <c r="J25">
+        <v>4.594626803902227</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>41.84906846606323</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>94.69910453543906</v>
+        <v>20.06047615873079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.67104496537784</v>
+        <v>10.03591604707802</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.532234421316475</v>
+        <v>8.796942828015835</v>
       </c>
       <c r="E2">
-        <v>6.319149357049331</v>
+        <v>12.60781341984324</v>
       </c>
       <c r="F2">
-        <v>24.08231052338038</v>
+        <v>30.92064485406651</v>
       </c>
       <c r="G2">
-        <v>2.036525397528465</v>
+        <v>3.629112171288599</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.90750824808628</v>
+        <v>23.77891671908844</v>
       </c>
       <c r="J2">
-        <v>4.804666856122615</v>
+        <v>9.428389757846121</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.38692685679835</v>
+        <v>27.49615983874695</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.81060933461331</v>
+        <v>23.61489877096263</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.70538018952759</v>
+        <v>9.582141057229396</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.644346324546041</v>
+        <v>8.839853716210484</v>
       </c>
       <c r="E3">
-        <v>6.547815091871219</v>
+        <v>12.70081725631764</v>
       </c>
       <c r="F3">
-        <v>23.047471565338</v>
+        <v>30.93139426254933</v>
       </c>
       <c r="G3">
-        <v>2.044870975017324</v>
+        <v>3.632184171894186</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.11756066889739</v>
+        <v>23.09541390854298</v>
       </c>
       <c r="J3">
-        <v>4.954090318589962</v>
+        <v>9.486217189340508</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.89675913107484</v>
+        <v>26.35820750773802</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.97958386933634</v>
+        <v>23.59387516168431</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.079187302523</v>
+        <v>9.291282861952386</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.715166433850754</v>
+        <v>8.867523638198167</v>
       </c>
       <c r="E4">
-        <v>6.694271698105466</v>
+        <v>12.76096016613953</v>
       </c>
       <c r="F4">
-        <v>22.43033916633679</v>
+        <v>30.94998089758091</v>
       </c>
       <c r="G4">
-        <v>2.050125171775521</v>
+        <v>3.634168488309737</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.97942369837371</v>
+        <v>22.67141696445289</v>
       </c>
       <c r="J4">
-        <v>5.049206278128331</v>
+        <v>9.523568024613585</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>34.28449086156514</v>
+        <v>25.6308364727196</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.47844771206884</v>
+        <v>23.5893944638361</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.81560796493782</v>
+        <v>9.169793992129312</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.744537392043246</v>
+        <v>8.879132920052644</v>
       </c>
       <c r="E5">
-        <v>6.755430141168466</v>
+        <v>12.78623432296682</v>
       </c>
       <c r="F5">
-        <v>22.18369163487139</v>
+        <v>30.9605532645494</v>
       </c>
       <c r="G5">
-        <v>2.052300608572181</v>
+        <v>3.635001868143477</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.50620144170955</v>
+        <v>22.49785144950431</v>
       </c>
       <c r="J5">
-        <v>5.08880065285923</v>
+        <v>9.539253693131721</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>33.60467292086349</v>
+        <v>25.32753710329781</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.27673986800374</v>
+        <v>23.589682316477</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.77133263868582</v>
+        <v>9.149445712313092</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.749445647427458</v>
+        <v>8.881080808820037</v>
       </c>
       <c r="E6">
-        <v>6.765673451728138</v>
+        <v>12.79047735126086</v>
       </c>
       <c r="F6">
-        <v>22.14303568339739</v>
+        <v>30.96248936148616</v>
       </c>
       <c r="G6">
-        <v>2.052663955835746</v>
+        <v>3.635141747938167</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.42706820985958</v>
+        <v>22.4689929466703</v>
       </c>
       <c r="J6">
-        <v>5.095425315543839</v>
+        <v>9.541886397005541</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>33.4904111618065</v>
+        <v>25.27676850737273</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.24340473532286</v>
+        <v>23.58985757710567</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.07566663142491</v>
+        <v>9.289656246586416</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.715560454900515</v>
+        <v>8.867678853108723</v>
       </c>
       <c r="E7">
-        <v>6.695090578924617</v>
+        <v>12.7612979211558</v>
       </c>
       <c r="F7">
-        <v>22.42699286387638</v>
+        <v>30.95011136398522</v>
       </c>
       <c r="G7">
-        <v>2.050154369490606</v>
+        <v>3.634179627214996</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.9730791892479</v>
+        <v>22.66907895617136</v>
       </c>
       <c r="J7">
-        <v>5.049736900222626</v>
+        <v>9.523777683277109</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>34.27541499250973</v>
+        <v>25.62677351545816</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.47571694717673</v>
+        <v>23.58938979635275</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.34496516934109</v>
+        <v>9.882058472240972</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.570486813490322</v>
+        <v>8.811464642105753</v>
       </c>
       <c r="E8">
-        <v>6.396705249610244</v>
+        <v>12.63925144091723</v>
       </c>
       <c r="F8">
-        <v>23.72185012143089</v>
+        <v>30.92185469920928</v>
       </c>
       <c r="G8">
-        <v>2.039376989448797</v>
+        <v>3.630151090351128</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.29866479349183</v>
+        <v>23.54431890635382</v>
       </c>
       <c r="J8">
-        <v>4.855479352060729</v>
+        <v>9.447946461098528</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>37.53939012645811</v>
+        <v>27.10992048659737</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.52230169116301</v>
+        <v>23.60589799144708</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.57213506799508</v>
+        <v>10.94242800762164</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.301127919614196</v>
+        <v>8.711674771501963</v>
       </c>
       <c r="E9">
-        <v>5.862373066063186</v>
+        <v>12.42395918525014</v>
       </c>
       <c r="F9">
-        <v>26.39647473837211</v>
+        <v>30.96213332788488</v>
       </c>
       <c r="G9">
-        <v>2.019194157773655</v>
+        <v>3.623025473538591</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.53582811940114</v>
+        <v>25.21396690350173</v>
       </c>
       <c r="J9">
-        <v>4.5021392932677</v>
+        <v>9.313828580226945</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>43.34255409668599</v>
+        <v>29.77907426552924</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.63905687216149</v>
+        <v>23.70528414551036</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.05224444210068</v>
+        <v>11.65509735507625</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.111558912693566</v>
+        <v>8.644660532042675</v>
       </c>
       <c r="E10">
-        <v>5.505939980342768</v>
+        <v>12.28034813808014</v>
       </c>
       <c r="F10">
-        <v>28.43446365823227</v>
+        <v>31.05066493105122</v>
       </c>
       <c r="G10">
-        <v>2.004824086650291</v>
+        <v>3.618256711516018</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38.44039949099775</v>
+        <v>26.39703232191884</v>
       </c>
       <c r="J10">
-        <v>4.261096082193537</v>
+        <v>9.224116515471851</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>47.16911397846449</v>
+        <v>31.58096553180523</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.22583682420625</v>
+        <v>23.81920081212314</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.69257175827025</v>
+        <v>11.96417293426857</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.026916653207996</v>
+        <v>8.615527975522618</v>
       </c>
       <c r="E11">
-        <v>5.353291420587893</v>
+        <v>12.21815965427576</v>
       </c>
       <c r="F11">
-        <v>29.37651423332462</v>
+        <v>31.1038039039939</v>
       </c>
       <c r="G11">
-        <v>1.998355902755213</v>
+        <v>3.61618735742901</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>39.71557590011435</v>
+        <v>26.92298357228939</v>
       </c>
       <c r="J11">
-        <v>4.156057989250601</v>
+        <v>9.185206140090045</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>48.81601022372152</v>
+        <v>32.36398883510297</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.10073085588735</v>
+        <v>23.87986518245103</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.93038643231264</v>
+        <v>12.07899061588007</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.995075560348441</v>
+        <v>8.604689649136143</v>
       </c>
       <c r="E12">
-        <v>5.297040058353685</v>
+        <v>12.19506090059057</v>
       </c>
       <c r="F12">
-        <v>29.73540412276682</v>
+        <v>31.12577657101123</v>
       </c>
       <c r="G12">
-        <v>1.99591363818284</v>
+        <v>3.615418031933425</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>40.19182035136249</v>
+        <v>27.12018549560353</v>
       </c>
       <c r="J12">
-        <v>4.117015754834178</v>
+        <v>9.17074402121953</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>49.42633957603743</v>
+        <v>32.6550835742902</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.44209751538262</v>
+        <v>23.90410158578574</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.87937485318113</v>
+        <v>12.05436209621135</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.001924020307054</v>
+        <v>8.607015284057322</v>
       </c>
       <c r="E13">
-        <v>5.309082211431233</v>
+        <v>12.20001560150792</v>
       </c>
       <c r="F13">
-        <v>29.65801401070009</v>
+        <v>31.12096211399866</v>
       </c>
       <c r="G13">
-        <v>1.996439355866299</v>
+        <v>3.615583085531846</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>40.08954726735175</v>
+        <v>27.07780495701195</v>
       </c>
       <c r="J13">
-        <v>4.125390256616681</v>
+        <v>9.173846595370863</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>49.29548345404797</v>
+        <v>32.59263422080907</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.36868664097366</v>
+        <v>23.89882576503738</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.71222989606524</v>
+        <v>11.97366384178845</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.024292944071313</v>
+        <v>8.614632426510324</v>
       </c>
       <c r="E14">
-        <v>5.348631211864057</v>
+        <v>12.21625027910113</v>
       </c>
       <c r="F14">
-        <v>29.40599682269485</v>
+        <v>31.10557454106777</v>
       </c>
       <c r="G14">
-        <v>1.998154851103003</v>
+        <v>3.616123778558621</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>39.75488966730246</v>
+        <v>26.93924796773928</v>
       </c>
       <c r="J14">
-        <v>4.152830792555505</v>
+        <v>9.184010878329257</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>48.8664881745055</v>
+        <v>32.38804673988228</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.12886451372144</v>
+        <v>23.88183384241691</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.60924394928649</v>
+        <v>11.92394311181249</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.038021491604415</v>
+        <v>8.619323322585156</v>
       </c>
       <c r="E15">
-        <v>5.373064781410205</v>
+        <v>12.22625315108204</v>
       </c>
       <c r="F15">
-        <v>29.25191117460565</v>
+        <v>31.09639009156262</v>
       </c>
       <c r="G15">
-        <v>1.999206477240843</v>
+        <v>3.616456827692786</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>39.5490386747283</v>
+        <v>26.85411623557621</v>
       </c>
       <c r="J15">
-        <v>4.169736829864271</v>
+        <v>9.190272244819779</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>48.60198768696092</v>
+        <v>32.26202131124632</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.9816451563836</v>
+        <v>23.87159016222128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.00974049107521</v>
+        <v>11.63458994589951</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.117121031433262</v>
+        <v>8.646591548270836</v>
       </c>
       <c r="E16">
-        <v>5.516122020911591</v>
+        <v>12.28447541927165</v>
       </c>
       <c r="F16">
-        <v>28.37319817707215</v>
+        <v>31.04745113819527</v>
       </c>
       <c r="G16">
-        <v>2.00524795009286</v>
+        <v>3.618393953417403</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.35613390482893</v>
+        <v>26.36239600694129</v>
       </c>
       <c r="J16">
-        <v>4.268058964372024</v>
+        <v>9.226697562659336</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>47.05961235762955</v>
+        <v>31.52904221941297</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.17838084794587</v>
+        <v>23.8154136113036</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.6335713447067</v>
+        <v>11.45317114954624</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.166041688085607</v>
+        <v>8.663665462844966</v>
       </c>
       <c r="E17">
-        <v>5.606434636654495</v>
+        <v>12.32099663584373</v>
       </c>
       <c r="F17">
-        <v>27.83794791843049</v>
+        <v>31.02072488948735</v>
       </c>
       <c r="G17">
-        <v>2.008969927293657</v>
+        <v>3.619607865339491</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.61249058378087</v>
+        <v>26.05745607412909</v>
       </c>
       <c r="J17">
-        <v>4.329602133053399</v>
+        <v>9.249529370958383</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>46.08950709357303</v>
+        <v>31.06988018196834</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.76318104966614</v>
+        <v>23.78321146243265</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.41409920812071</v>
+        <v>11.34740283655053</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.194330702101352</v>
+        <v>8.673613292955352</v>
       </c>
       <c r="E18">
-        <v>5.659260035605387</v>
+        <v>12.34229836506797</v>
       </c>
       <c r="F18">
-        <v>27.53148951990431</v>
+        <v>31.00656382105703</v>
       </c>
       <c r="G18">
-        <v>2.011117373605875</v>
+        <v>3.620315490869014</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.18042143939196</v>
+        <v>25.88092239744744</v>
       </c>
       <c r="J18">
-        <v>4.365429208086363</v>
+        <v>9.262840517094425</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>45.52268570731488</v>
+        <v>30.80233827074823</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.52495195172956</v>
+        <v>23.765522594746</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.33925333439905</v>
+        <v>11.31134905337997</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.203935368646277</v>
+        <v>8.677003361695132</v>
       </c>
       <c r="E19">
-        <v>5.67729194146655</v>
+        <v>12.34956158078399</v>
       </c>
       <c r="F19">
-        <v>27.42797005807605</v>
+        <v>31.00197709094668</v>
       </c>
       <c r="G19">
-        <v>2.011845687031281</v>
+        <v>3.620556700368285</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.03338498953467</v>
+        <v>25.82096188238707</v>
       </c>
       <c r="J19">
-        <v>4.377631500349664</v>
+        <v>9.267378193555306</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>45.32924578603195</v>
+        <v>30.71116652069539</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.44439237372954</v>
+        <v>23.75967669890196</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.67393647082742</v>
+        <v>11.4726309365542</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.16081848506397</v>
+        <v>8.661834740564684</v>
       </c>
       <c r="E20">
-        <v>5.596728413344961</v>
+        <v>12.31707829452513</v>
       </c>
       <c r="F20">
-        <v>27.89478117693629</v>
+        <v>31.02344458335551</v>
       </c>
       <c r="G20">
-        <v>2.00857304616526</v>
+        <v>3.619477668480279</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.69210259675604</v>
+        <v>26.09003702078465</v>
       </c>
       <c r="J20">
-        <v>4.323005902975996</v>
+        <v>9.247080377392178</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>46.19369036855677</v>
+        <v>31.11911634872485</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.80731955765578</v>
+        <v>23.78655327541041</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.76145031693346</v>
+        <v>11.99742753477327</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.017717069310827</v>
+        <v>8.612389842093812</v>
       </c>
       <c r="E21">
-        <v>5.336970823101584</v>
+        <v>12.21146953705828</v>
       </c>
       <c r="F21">
-        <v>29.479961464329</v>
+        <v>31.11004404878287</v>
       </c>
       <c r="G21">
-        <v>1.997650799833796</v>
+        <v>3.615964576634289</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>39.85336661141902</v>
+        <v>26.98000036464977</v>
       </c>
       <c r="J21">
-        <v>4.144750283369776</v>
+        <v>9.181017995799596</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>48.9928543710094</v>
+        <v>32.44828717016073</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.19937269207355</v>
+        <v>23.88679054555433</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.44506360744591</v>
+        <v>12.32744135890217</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.925413269000307</v>
+        <v>8.581202403762319</v>
       </c>
       <c r="E22">
-        <v>5.176381164047323</v>
+        <v>12.1450745812022</v>
       </c>
       <c r="F22">
-        <v>30.59458279404636</v>
+        <v>31.17742331587698</v>
       </c>
       <c r="G22">
-        <v>1.990552313183333</v>
+        <v>3.613751846088002</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>41.22722665942594</v>
+        <v>27.55011167773118</v>
       </c>
       <c r="J22">
-        <v>4.032572127109293</v>
+        <v>9.139429775603897</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>50.74475305336155</v>
+        <v>33.28533785679834</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.18850129942568</v>
+        <v>23.95966453591932</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.08266156148937</v>
+        <v>12.15250734220226</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.97457205503491</v>
+        <v>8.597744860361987</v>
       </c>
       <c r="E23">
-        <v>5.261176361628046</v>
+        <v>12.18027080407508</v>
       </c>
       <c r="F23">
-        <v>29.96774133699906</v>
+        <v>31.14047603565736</v>
       </c>
       <c r="G23">
-        <v>1.994338272541212</v>
+        <v>3.614925229392717</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>40.49749574474583</v>
+        <v>27.24695033046212</v>
       </c>
       <c r="J23">
-        <v>4.092019841821668</v>
+        <v>9.161481215645523</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>49.81676303311039</v>
+        <v>32.84152567077395</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.66184570564839</v>
+        <v>23.920099674761</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.65569739382404</v>
+        <v>11.46383773633131</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.163179383355684</v>
+        <v>8.662661999458447</v>
       </c>
       <c r="E24">
-        <v>5.601113796362801</v>
+        <v>12.31884882587007</v>
       </c>
       <c r="F24">
-        <v>27.86908292271465</v>
+        <v>31.02221125878461</v>
       </c>
       <c r="G24">
-        <v>2.008752452143476</v>
+        <v>3.619536500161242</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.65612414176607</v>
+        <v>26.07531095790086</v>
       </c>
       <c r="J24">
-        <v>4.325986677270325</v>
+        <v>9.248186991549851</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>46.14661745195229</v>
+        <v>31.09686776599778</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.78736305937706</v>
+        <v>23.78503987272012</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.99733676743204</v>
+        <v>10.66694570987877</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.372466055315011</v>
+        <v>8.737559173240928</v>
       </c>
       <c r="E25">
-        <v>6.001034521305977</v>
+        <v>12.47963742151085</v>
       </c>
       <c r="F25">
-        <v>25.65959025440797</v>
+        <v>30.94091843707681</v>
       </c>
       <c r="G25">
-        <v>2.024564178039951</v>
+        <v>3.62487082703486</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.42564210819867</v>
+        <v>24.76892866249995</v>
       </c>
       <c r="J25">
-        <v>4.594626803902227</v>
+        <v>9.34855654507594</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.84906846606323</v>
+        <v>29.08411652274701</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.06047615873079</v>
+        <v>23.67120937072243</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.03591604707802</v>
+        <v>14.67104496537782</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.796942828015835</v>
+        <v>4.532234421316542</v>
       </c>
       <c r="E2">
-        <v>12.60781341984324</v>
+        <v>6.319149357049383</v>
       </c>
       <c r="F2">
-        <v>30.92064485406651</v>
+        <v>24.0823105233805</v>
       </c>
       <c r="G2">
-        <v>3.629112171288599</v>
+        <v>2.036525397528462</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.77891671908844</v>
+        <v>31.90750824808611</v>
       </c>
       <c r="J2">
-        <v>9.428389757846121</v>
+        <v>4.804666856122609</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>27.49615983874695</v>
+        <v>38.38692685679823</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.61489877096263</v>
+        <v>18.81060933461339</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.582141057229396</v>
+        <v>13.70538018952764</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.839853716210484</v>
+        <v>4.644346324545838</v>
       </c>
       <c r="E3">
-        <v>12.70081725631764</v>
+        <v>6.54781509187109</v>
       </c>
       <c r="F3">
-        <v>30.93139426254933</v>
+        <v>23.04747156533798</v>
       </c>
       <c r="G3">
-        <v>3.632184171894186</v>
+        <v>2.044870975017327</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.09541390854298</v>
+        <v>30.11756066889735</v>
       </c>
       <c r="J3">
-        <v>9.486217189340508</v>
+        <v>4.954090318589962</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>26.35820750773802</v>
+        <v>35.89675913107484</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.59387516168431</v>
+        <v>17.97958386933637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.291282861952386</v>
+        <v>13.0791873025229</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.867523638198167</v>
+        <v>4.715166433850619</v>
       </c>
       <c r="E4">
-        <v>12.76096016613953</v>
+        <v>6.694271698105461</v>
       </c>
       <c r="F4">
-        <v>30.94998089758091</v>
+        <v>22.43033916633679</v>
       </c>
       <c r="G4">
-        <v>3.634168488309737</v>
+        <v>2.050125171775788</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.67141696445289</v>
+        <v>28.97942369837372</v>
       </c>
       <c r="J4">
-        <v>9.523568024613585</v>
+        <v>5.049206278128395</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.6308364727196</v>
+        <v>34.28449086156512</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.5893944638361</v>
+        <v>17.47844771206885</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.169793992129312</v>
+        <v>12.81560796493778</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.879132920052644</v>
+        <v>4.744537392043179</v>
       </c>
       <c r="E5">
-        <v>12.78623432296682</v>
+        <v>6.755430141168524</v>
       </c>
       <c r="F5">
-        <v>30.9605532645494</v>
+        <v>22.18369163487144</v>
       </c>
       <c r="G5">
-        <v>3.635001868143477</v>
+        <v>2.052300608572314</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.49785144950431</v>
+        <v>28.50620144170947</v>
       </c>
       <c r="J5">
-        <v>9.539253693131721</v>
+        <v>5.088800652859264</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.32753710329781</v>
+        <v>33.60467292086344</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.589682316477</v>
+        <v>17.27673986800376</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.149445712313092</v>
+        <v>12.77133263868582</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.881080808820037</v>
+        <v>4.749445647427524</v>
       </c>
       <c r="E6">
-        <v>12.79047735126086</v>
+        <v>6.765673451728126</v>
       </c>
       <c r="F6">
-        <v>30.96248936148616</v>
+        <v>22.14303568339739</v>
       </c>
       <c r="G6">
-        <v>3.635141747938167</v>
+        <v>2.052663955835747</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.4689929466703</v>
+        <v>28.42706820985946</v>
       </c>
       <c r="J6">
-        <v>9.541886397005541</v>
+        <v>5.095425315543835</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.27676850737273</v>
+        <v>33.49041116180642</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.58985757710567</v>
+        <v>17.24340473532286</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.289656246586416</v>
+        <v>13.07566663142491</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.867678853108723</v>
+        <v>4.715560454900249</v>
       </c>
       <c r="E7">
-        <v>12.7612979211558</v>
+        <v>6.695090578924495</v>
       </c>
       <c r="F7">
-        <v>30.95011136398522</v>
+        <v>22.42699286387639</v>
       </c>
       <c r="G7">
-        <v>3.634179627214996</v>
+        <v>2.050154369490473</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.66907895617136</v>
+        <v>28.97307918924798</v>
       </c>
       <c r="J7">
-        <v>9.523777683277109</v>
+        <v>5.049736900222626</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.62677351545816</v>
+        <v>34.27541499250981</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.58938979635275</v>
+        <v>17.47571694717677</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.882058472240972</v>
+        <v>14.34496516934107</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.811464642105753</v>
+        <v>4.570486813490389</v>
       </c>
       <c r="E8">
-        <v>12.63925144091723</v>
+        <v>6.396705249610239</v>
       </c>
       <c r="F8">
-        <v>30.92185469920928</v>
+        <v>23.72185012143095</v>
       </c>
       <c r="G8">
-        <v>3.630151090351128</v>
+        <v>2.039376989448931</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.54431890635382</v>
+        <v>31.29866479349176</v>
       </c>
       <c r="J8">
-        <v>9.447946461098528</v>
+        <v>4.855479352060697</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>27.10992048659737</v>
+        <v>37.53939012645807</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.60589799144708</v>
+        <v>18.52230169116306</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.94242800762164</v>
+        <v>16.57213506799508</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.711674771501963</v>
+        <v>4.301127919614196</v>
       </c>
       <c r="E9">
-        <v>12.42395918525014</v>
+        <v>5.862373066063194</v>
       </c>
       <c r="F9">
-        <v>30.96213332788488</v>
+        <v>26.3964747383721</v>
       </c>
       <c r="G9">
-        <v>3.623025473538591</v>
+        <v>2.019194157773656</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.21396690350173</v>
+        <v>35.53582811940117</v>
       </c>
       <c r="J9">
-        <v>9.313828580226945</v>
+        <v>4.502139293267735</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>29.77907426552924</v>
+        <v>43.34255409668603</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.70528414551036</v>
+        <v>20.63905687216149</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.65509735507625</v>
+        <v>18.05224444210068</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.644660532042675</v>
+        <v>4.111558912693567</v>
       </c>
       <c r="E10">
-        <v>12.28034813808014</v>
+        <v>5.505939980342832</v>
       </c>
       <c r="F10">
-        <v>31.05066493105122</v>
+        <v>28.43446365823229</v>
       </c>
       <c r="G10">
-        <v>3.618256711516018</v>
+        <v>2.004824086650423</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.39703232191884</v>
+        <v>38.44039949099781</v>
       </c>
       <c r="J10">
-        <v>9.224116515471851</v>
+        <v>4.261096082193545</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>31.58096553180523</v>
+        <v>47.16911397846456</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.81920081212314</v>
+        <v>22.22583682420625</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.96417293426857</v>
+        <v>18.69257175827024</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.615527975522618</v>
+        <v>4.026916653207994</v>
       </c>
       <c r="E11">
-        <v>12.21815965427576</v>
+        <v>5.353291420587833</v>
       </c>
       <c r="F11">
-        <v>31.1038039039939</v>
+        <v>29.37651423332465</v>
       </c>
       <c r="G11">
-        <v>3.61618735742901</v>
+        <v>1.998355902755216</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.92298357228939</v>
+        <v>39.71557590011436</v>
       </c>
       <c r="J11">
-        <v>9.185206140090045</v>
+        <v>4.156057989250606</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>32.36398883510297</v>
+        <v>48.81601022372152</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.87986518245103</v>
+        <v>23.10073085588735</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.07899061588007</v>
+        <v>18.93038643231264</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.604689649136143</v>
+        <v>3.995075560348509</v>
       </c>
       <c r="E12">
-        <v>12.19506090059057</v>
+        <v>5.297040058353815</v>
       </c>
       <c r="F12">
-        <v>31.12577657101123</v>
+        <v>29.73540412276684</v>
       </c>
       <c r="G12">
-        <v>3.615418031933425</v>
+        <v>1.995913638182711</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.12018549560353</v>
+        <v>40.19182035136256</v>
       </c>
       <c r="J12">
-        <v>9.17074402121953</v>
+        <v>4.117015754834273</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>32.6550835742902</v>
+        <v>49.42633957603746</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.90410158578574</v>
+        <v>23.44209751538263</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.05436209621135</v>
+        <v>18.8793748531811</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.607015284057322</v>
+        <v>4.001924020307255</v>
       </c>
       <c r="E13">
-        <v>12.20001560150792</v>
+        <v>5.309082211431237</v>
       </c>
       <c r="F13">
-        <v>31.12096211399866</v>
+        <v>29.65801401070009</v>
       </c>
       <c r="G13">
-        <v>3.615583085531846</v>
+        <v>1.996439355866432</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.07780495701195</v>
+        <v>40.08954726735174</v>
       </c>
       <c r="J13">
-        <v>9.173846595370863</v>
+        <v>4.125390256616589</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>32.59263422080907</v>
+        <v>49.29548345404796</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.89882576503738</v>
+        <v>23.36868664097363</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.97366384178845</v>
+        <v>18.71222989606527</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.614632426510324</v>
+        <v>4.024292944071247</v>
       </c>
       <c r="E14">
-        <v>12.21625027910113</v>
+        <v>5.348631211864002</v>
       </c>
       <c r="F14">
-        <v>31.10557454106777</v>
+        <v>29.40599682269483</v>
       </c>
       <c r="G14">
-        <v>3.616123778558621</v>
+        <v>1.998154851103</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.93924796773928</v>
+        <v>39.75488966730248</v>
       </c>
       <c r="J14">
-        <v>9.184010878329257</v>
+        <v>4.152830792555504</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>32.38804673988228</v>
+        <v>48.86648817450549</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.88183384241691</v>
+        <v>23.12886451372142</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.92394311181249</v>
+        <v>18.60924394928644</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.619323322585156</v>
+        <v>4.038021491604214</v>
       </c>
       <c r="E15">
-        <v>12.22625315108204</v>
+        <v>5.373064781410211</v>
       </c>
       <c r="F15">
-        <v>31.09639009156262</v>
+        <v>29.25191117460562</v>
       </c>
       <c r="G15">
-        <v>3.616456827692786</v>
+        <v>1.999206477240842</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.85411623557621</v>
+        <v>39.54903867472834</v>
       </c>
       <c r="J15">
-        <v>9.190272244819779</v>
+        <v>4.169736829864329</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>32.26202131124632</v>
+        <v>48.60198768696093</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.87159016222128</v>
+        <v>22.98164515638362</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.63458994589951</v>
+        <v>18.00974049107522</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.646591548270836</v>
+        <v>4.117121031433194</v>
       </c>
       <c r="E16">
-        <v>12.28447541927165</v>
+        <v>5.516122020911593</v>
       </c>
       <c r="F16">
-        <v>31.04745113819527</v>
+        <v>28.37319817707213</v>
       </c>
       <c r="G16">
-        <v>3.618393953417403</v>
+        <v>2.005247950092725</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.36239600694129</v>
+        <v>38.35613390482892</v>
       </c>
       <c r="J16">
-        <v>9.226697562659336</v>
+        <v>4.268058964372022</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>31.52904221941297</v>
+        <v>47.0596123576295</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.8154136113036</v>
+        <v>22.17838084794585</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.45317114954624</v>
+        <v>17.63357134470673</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.663665462844966</v>
+        <v>4.166041688085604</v>
       </c>
       <c r="E17">
-        <v>12.32099663584373</v>
+        <v>5.60643463665449</v>
       </c>
       <c r="F17">
-        <v>31.02072488948735</v>
+        <v>27.83794791843051</v>
       </c>
       <c r="G17">
-        <v>3.619607865339491</v>
+        <v>2.008969927293657</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.05745607412909</v>
+        <v>37.61249058378083</v>
       </c>
       <c r="J17">
-        <v>9.249529370958383</v>
+        <v>4.329602133053372</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>31.06988018196834</v>
+        <v>46.08950709357306</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.78321146243265</v>
+        <v>21.76318104966616</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.34740283655053</v>
+        <v>17.41409920812079</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.673613292955352</v>
+        <v>4.194330702101284</v>
       </c>
       <c r="E18">
-        <v>12.34229836506797</v>
+        <v>5.659260035605322</v>
       </c>
       <c r="F18">
-        <v>31.00656382105703</v>
+        <v>27.53148951990429</v>
       </c>
       <c r="G18">
-        <v>3.620315490869014</v>
+        <v>2.011117373605743</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.88092239744744</v>
+        <v>37.18042143939195</v>
       </c>
       <c r="J18">
-        <v>9.262840517094425</v>
+        <v>4.365429208086359</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>30.80233827074823</v>
+        <v>45.5226857073149</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.765522594746</v>
+        <v>21.52495195172954</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.31134905337997</v>
+        <v>17.33925333439904</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.677003361695132</v>
+        <v>4.203935368646343</v>
       </c>
       <c r="E19">
-        <v>12.34956158078399</v>
+        <v>5.677291941466604</v>
       </c>
       <c r="F19">
-        <v>31.00197709094668</v>
+        <v>27.42797005807606</v>
       </c>
       <c r="G19">
-        <v>3.620556700368285</v>
+        <v>2.011845687031417</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.82096188238707</v>
+        <v>37.03338498953465</v>
       </c>
       <c r="J19">
-        <v>9.267378193555306</v>
+        <v>4.377631500349661</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>30.71116652069539</v>
+        <v>45.32924578603193</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.75967669890196</v>
+        <v>21.44439237372955</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.4726309365542</v>
+        <v>17.67393647082742</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.661834740564684</v>
+        <v>4.160818485063905</v>
       </c>
       <c r="E20">
-        <v>12.31707829452513</v>
+        <v>5.596728413344914</v>
       </c>
       <c r="F20">
-        <v>31.02344458335551</v>
+        <v>27.89478117693625</v>
       </c>
       <c r="G20">
-        <v>3.619477668480279</v>
+        <v>2.008573046165395</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.09003702078465</v>
+        <v>37.69210259675609</v>
       </c>
       <c r="J20">
-        <v>9.247080377392178</v>
+        <v>4.32300590297603</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>31.11911634872485</v>
+        <v>46.19369036855676</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.78655327541041</v>
+        <v>21.80731955765576</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.99742753477327</v>
+        <v>18.76145031693343</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.612389842093812</v>
+        <v>4.017717069310759</v>
       </c>
       <c r="E21">
-        <v>12.21146953705828</v>
+        <v>5.336970823101591</v>
       </c>
       <c r="F21">
-        <v>31.11004404878287</v>
+        <v>29.47996146432898</v>
       </c>
       <c r="G21">
-        <v>3.615964576634289</v>
+        <v>1.997650799833929</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.98000036464977</v>
+        <v>39.85336661141912</v>
       </c>
       <c r="J21">
-        <v>9.181017995799596</v>
+        <v>4.144750283369778</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>32.44828717016073</v>
+        <v>48.99285437100945</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.88679054555433</v>
+        <v>23.19937269207357</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.32744135890217</v>
+        <v>19.4450636074459</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.581202403762319</v>
+        <v>3.925413269000174</v>
       </c>
       <c r="E22">
-        <v>12.1450745812022</v>
+        <v>5.176381164047196</v>
       </c>
       <c r="F22">
-        <v>31.17742331587698</v>
+        <v>30.59458279404639</v>
       </c>
       <c r="G22">
-        <v>3.613751846088002</v>
+        <v>1.990552313183066</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.55011167773118</v>
+        <v>41.22722665942577</v>
       </c>
       <c r="J22">
-        <v>9.139429775603897</v>
+        <v>4.032572127109194</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>33.28533785679834</v>
+        <v>50.74475305336146</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.95966453591932</v>
+        <v>24.1885012994257</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.15250734220226</v>
+        <v>19.08266156148942</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.597744860361987</v>
+        <v>3.974572055034844</v>
       </c>
       <c r="E23">
-        <v>12.18027080407508</v>
+        <v>5.261176361628057</v>
       </c>
       <c r="F23">
-        <v>31.14047603565736</v>
+        <v>29.96774133699904</v>
       </c>
       <c r="G23">
-        <v>3.614925229392717</v>
+        <v>1.994338272541079</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.24695033046212</v>
+        <v>40.49749574474599</v>
       </c>
       <c r="J23">
-        <v>9.161481215645523</v>
+        <v>4.092019841821734</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>32.84152567077395</v>
+        <v>49.81676303311051</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.920099674761</v>
+        <v>23.6618457056484</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.46383773633131</v>
+        <v>17.65569739382404</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.662661999458447</v>
+        <v>4.163179383355549</v>
       </c>
       <c r="E24">
-        <v>12.31884882587007</v>
+        <v>5.60111379636281</v>
       </c>
       <c r="F24">
-        <v>31.02221125878461</v>
+        <v>27.86908292271467</v>
       </c>
       <c r="G24">
-        <v>3.619536500161242</v>
+        <v>2.008752452143611</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.07531095790086</v>
+        <v>37.65612414176608</v>
       </c>
       <c r="J24">
-        <v>9.248186991549851</v>
+        <v>4.325986677270297</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>31.09686776599778</v>
+        <v>46.14661745195226</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.78503987272012</v>
+        <v>21.78736305937707</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.66694570987877</v>
+        <v>15.99733676743208</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.737559173240928</v>
+        <v>4.37246605531481</v>
       </c>
       <c r="E25">
-        <v>12.47963742151085</v>
+        <v>6.001034521305863</v>
       </c>
       <c r="F25">
-        <v>30.94091843707681</v>
+        <v>25.65959025440797</v>
       </c>
       <c r="G25">
-        <v>3.62487082703486</v>
+        <v>2.024564178039816</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.76892866249995</v>
+        <v>34.42564210819874</v>
       </c>
       <c r="J25">
-        <v>9.34855654507594</v>
+        <v>4.594626803902201</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>29.08411652274701</v>
+        <v>41.84906846606328</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.67120937072243</v>
+        <v>20.06047615873079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.67104496537782</v>
+        <v>24.03951969628692</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.532234421316542</v>
+        <v>2.072646856124152</v>
       </c>
       <c r="E2">
-        <v>6.319149357049383</v>
+        <v>31.51251701979448</v>
       </c>
       <c r="F2">
-        <v>24.0823105233805</v>
+        <v>24.56165965671888</v>
       </c>
       <c r="G2">
-        <v>2.036525397528462</v>
+        <v>35.9267973137101</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.413919534380266</v>
       </c>
       <c r="I2">
-        <v>31.90750824808611</v>
+        <v>3.005390845382122</v>
       </c>
       <c r="J2">
-        <v>4.804666856122609</v>
+        <v>9.83149814950481</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>70.04831980844861</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.38692685679823</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.81060933461339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>18.80947629602494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.70538018952764</v>
+        <v>22.47103589359181</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.644346324545838</v>
+        <v>2.011273384765137</v>
       </c>
       <c r="E3">
-        <v>6.54781509187109</v>
+        <v>29.62929689500078</v>
       </c>
       <c r="F3">
-        <v>23.04747156533798</v>
+        <v>23.04066960629008</v>
       </c>
       <c r="G3">
-        <v>2.044870975017327</v>
+        <v>33.49013665598645</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.141136017262474</v>
       </c>
       <c r="I3">
-        <v>30.11756066889735</v>
+        <v>3.192510874708861</v>
       </c>
       <c r="J3">
-        <v>4.954090318589962</v>
+        <v>9.399448728397596</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>65.44940052185392</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.89675913107484</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.97958386933637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>17.7249640292932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.0791873025229</v>
+        <v>21.44996014040526</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.715166433850619</v>
+        <v>1.971595592722466</v>
       </c>
       <c r="E4">
-        <v>6.694271698105461</v>
+        <v>28.41373953811855</v>
       </c>
       <c r="F4">
-        <v>22.43033916633679</v>
+        <v>22.0654961429624</v>
       </c>
       <c r="G4">
-        <v>2.050125171775788</v>
+        <v>31.93724424972372</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.968141076107703</v>
       </c>
       <c r="I4">
-        <v>28.97942369837372</v>
+        <v>3.308238040789099</v>
       </c>
       <c r="J4">
-        <v>5.049206278128395</v>
+        <v>9.128193636010886</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>62.55294165479136</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>34.28449086156512</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.47844771206885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>17.0328935374161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.81560796493778</v>
+        <v>21.0191248006034</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.744537392043179</v>
+        <v>1.954931188485111</v>
       </c>
       <c r="E5">
-        <v>6.755430141168524</v>
+        <v>27.90356262375301</v>
       </c>
       <c r="F5">
-        <v>22.18369163487144</v>
+        <v>21.65793092303546</v>
       </c>
       <c r="G5">
-        <v>2.052300608572314</v>
+        <v>31.28541122636794</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.89622832676626</v>
       </c>
       <c r="I5">
-        <v>28.50620144170947</v>
+        <v>3.357057364133082</v>
       </c>
       <c r="J5">
-        <v>5.088800652859264</v>
+        <v>9.016283131538131</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>61.41579519922216</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>33.60467292086344</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.27673986800376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.7444962881794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.77133263868582</v>
+        <v>20.94660719316666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.749445647427524</v>
+        <v>1.952134346290389</v>
       </c>
       <c r="E6">
-        <v>6.765673451728126</v>
+        <v>27.81795549951648</v>
       </c>
       <c r="F6">
-        <v>22.14303568339739</v>
+        <v>21.58964784109698</v>
       </c>
       <c r="G6">
-        <v>2.052663955835747</v>
+        <v>31.17602849022096</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.884200850900155</v>
       </c>
       <c r="I6">
-        <v>28.42706820985946</v>
+        <v>3.367086934272987</v>
       </c>
       <c r="J6">
-        <v>5.095425315543835</v>
+        <v>8.997621809765118</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>61.31282198545149</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>33.49041116180642</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.24340473532286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.6962303968986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.07566663142491</v>
+        <v>21.44400016915299</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.715560454900249</v>
+        <v>1.971372848072053</v>
       </c>
       <c r="E7">
-        <v>6.695090578924495</v>
+        <v>28.40691902513552</v>
       </c>
       <c r="F7">
-        <v>22.42699286387639</v>
+        <v>22.06004045089546</v>
       </c>
       <c r="G7">
-        <v>2.050154369490473</v>
+        <v>31.92853030908462</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.96717700955433</v>
       </c>
       <c r="I7">
-        <v>28.97307918924798</v>
+        <v>3.31378638727711</v>
       </c>
       <c r="J7">
-        <v>5.049736900222626</v>
+        <v>9.126689739862357</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>62.77205030764391</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>34.27541499250981</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.47571694717677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17.02902959968149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.34496516934107</v>
+        <v>23.51060482620635</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.570486813490389</v>
+        <v>2.051902659387873</v>
       </c>
       <c r="E8">
-        <v>6.396705249610239</v>
+        <v>30.87551171780761</v>
       </c>
       <c r="F8">
-        <v>23.72185012143095</v>
+        <v>24.04589402848931</v>
       </c>
       <c r="G8">
-        <v>2.039376989448931</v>
+        <v>35.09754434051205</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.320986758575229</v>
       </c>
       <c r="I8">
-        <v>31.29866479349176</v>
+        <v>3.075717945874242</v>
       </c>
       <c r="J8">
-        <v>4.855479352060697</v>
+        <v>9.683840104137671</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>68.7835940212962</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>37.53939012645807</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.52230169116306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>18.44107878545448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.57213506799508</v>
+        <v>27.11809087931507</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.301127919614196</v>
+        <v>2.193758469364389</v>
       </c>
       <c r="E9">
-        <v>5.862373066063194</v>
+        <v>35.2450495340266</v>
       </c>
       <c r="F9">
-        <v>26.3964747383721</v>
+        <v>27.62587036344699</v>
       </c>
       <c r="G9">
-        <v>2.019194157773656</v>
+        <v>40.77835512480394</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.972639787590964</v>
       </c>
       <c r="I9">
-        <v>35.53582811940117</v>
+        <v>2.607337829569494</v>
       </c>
       <c r="J9">
-        <v>4.502139293267735</v>
+        <v>10.72423450015806</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>79.22058890756904</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>43.34255409668603</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.63905687216149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>20.99573808943829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.05224444210068</v>
+        <v>29.52590840198576</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.111558912693567</v>
+        <v>2.310072501018853</v>
       </c>
       <c r="E10">
-        <v>5.505939980342832</v>
+        <v>37.29635707322597</v>
       </c>
       <c r="F10">
-        <v>28.43446365823229</v>
+        <v>30.03866108906345</v>
       </c>
       <c r="G10">
-        <v>2.004824086650423</v>
+        <v>44.30907731206317</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.385526929647921</v>
       </c>
       <c r="I10">
-        <v>38.44039949099781</v>
+        <v>2.694300863279516</v>
       </c>
       <c r="J10">
-        <v>4.261096082193545</v>
+        <v>11.39247492535364</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>86.33114078562375</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>47.16911397846456</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.22583682420625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>22.75496679192758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.69257175827024</v>
+        <v>30.56501963939844</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.026916653207994</v>
+        <v>2.563663453215443</v>
       </c>
       <c r="E11">
-        <v>5.353291420587833</v>
+        <v>30.81223697021244</v>
       </c>
       <c r="F11">
-        <v>29.37651423332465</v>
+        <v>29.78429903360374</v>
       </c>
       <c r="G11">
-        <v>1.998355902755216</v>
+        <v>43.58311598726675</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.616659145951649</v>
       </c>
       <c r="I11">
-        <v>39.71557590011436</v>
+        <v>2.863409948912086</v>
       </c>
       <c r="J11">
-        <v>4.156057989250606</v>
+        <v>11.17674373362729</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>89.71136125585014</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>48.81601022372152</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.10073085588735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>22.39713327810053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.93038643231264</v>
+        <v>30.94890444533592</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.995075560348509</v>
+        <v>2.767133435402345</v>
       </c>
       <c r="E12">
-        <v>5.297040058353815</v>
+        <v>25.05731502740487</v>
       </c>
       <c r="F12">
-        <v>29.73540412276684</v>
+        <v>29.0754691611019</v>
       </c>
       <c r="G12">
-        <v>1.995913638182711</v>
+        <v>42.24736429732412</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.237937671084402</v>
       </c>
       <c r="I12">
-        <v>40.19182035136256</v>
+        <v>2.920602483785713</v>
       </c>
       <c r="J12">
-        <v>4.117015754834273</v>
+        <v>10.84850170145483</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>90.8143682008233</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>49.42633957603746</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.44209751538263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>21.72326754345866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.8793748531811</v>
+        <v>30.86632728123295</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.001924020307255</v>
+        <v>2.943809514685327</v>
       </c>
       <c r="E13">
-        <v>5.309082211431237</v>
+        <v>19.49624690559535</v>
       </c>
       <c r="F13">
-        <v>29.65801401070009</v>
+        <v>27.95062371099606</v>
       </c>
       <c r="G13">
-        <v>1.996439355866432</v>
+        <v>40.31767639658085</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.085888880659661</v>
       </c>
       <c r="I13">
-        <v>40.08954726735174</v>
+        <v>2.906780731808359</v>
       </c>
       <c r="J13">
-        <v>4.125390256616589</v>
+        <v>10.40524599824509</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>90.546897089683</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>49.29548345404796</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.36868664097363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>20.74356323316852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.71222989606527</v>
+        <v>30.59665531019523</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.024292944071247</v>
+        <v>3.056828410694433</v>
       </c>
       <c r="E14">
-        <v>5.348631211864002</v>
+        <v>15.85806279836412</v>
       </c>
       <c r="F14">
-        <v>29.40599682269483</v>
+        <v>26.95979231451662</v>
       </c>
       <c r="G14">
-        <v>1.998154851103</v>
+        <v>38.67195191279288</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.782501013475196</v>
       </c>
       <c r="I14">
-        <v>39.75488966730248</v>
+        <v>2.867465423457775</v>
       </c>
       <c r="J14">
-        <v>4.152830792555504</v>
+        <v>10.03791601949647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>89.78932321383597</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>48.86648817450549</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.12886451372142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>19.90649323966064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.60924394928644</v>
+        <v>30.4309102586133</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.038021491604214</v>
+        <v>3.077355927417608</v>
       </c>
       <c r="E15">
-        <v>5.373064781410211</v>
+        <v>15.01738713704774</v>
       </c>
       <c r="F15">
-        <v>29.25191117460562</v>
+        <v>26.62442171443513</v>
       </c>
       <c r="G15">
-        <v>1.999206477240842</v>
+        <v>38.1354380645318</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.943310175472848</v>
       </c>
       <c r="I15">
-        <v>39.54903867472834</v>
+        <v>2.846492030909852</v>
       </c>
       <c r="J15">
-        <v>4.169736829864329</v>
+        <v>9.923695739391185</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>89.384250240553</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>48.60198768696093</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.98164515638362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>19.63251974898982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.00974049107522</v>
+        <v>29.46102307622637</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.117121031433194</v>
+        <v>2.997938480660388</v>
       </c>
       <c r="E16">
-        <v>5.516122020911593</v>
+        <v>14.87812078050915</v>
       </c>
       <c r="F16">
-        <v>28.37319817707213</v>
+        <v>25.76598784452766</v>
       </c>
       <c r="G16">
-        <v>2.005247950092725</v>
+        <v>36.91053950359841</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.660739409246655</v>
       </c>
       <c r="I16">
-        <v>38.35613390482892</v>
+        <v>2.708061172222736</v>
       </c>
       <c r="J16">
-        <v>4.268058964372022</v>
+        <v>9.708386443791598</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>86.6367325381926</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>47.0596123576295</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.17838084794585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>18.99672021100486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.63357134470673</v>
+        <v>28.85101104749148</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.166041688085604</v>
+        <v>2.873301182057784</v>
       </c>
       <c r="E17">
-        <v>5.60643463665449</v>
+        <v>16.67373059312068</v>
       </c>
       <c r="F17">
-        <v>27.83794791843051</v>
+        <v>25.65108559226206</v>
       </c>
       <c r="G17">
-        <v>2.008969927293657</v>
+        <v>36.87753641026156</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.024769438298595</v>
       </c>
       <c r="I17">
-        <v>37.61249058378083</v>
+        <v>2.623905086322607</v>
       </c>
       <c r="J17">
-        <v>4.329602133053372</v>
+        <v>9.745272924165569</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>84.91638599100503</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>46.08950709357306</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.76318104966616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>18.969505310182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.41409920812079</v>
+        <v>28.49337206267155</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.194330702101284</v>
+        <v>2.700110207342719</v>
       </c>
       <c r="E18">
-        <v>5.659260035605322</v>
+        <v>20.80424627189185</v>
       </c>
       <c r="F18">
-        <v>27.53148951990429</v>
+        <v>26.17968766275382</v>
       </c>
       <c r="G18">
-        <v>2.011117373605743</v>
+        <v>37.89277141949445</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.12443301700185</v>
       </c>
       <c r="I18">
-        <v>37.18042143939195</v>
+        <v>2.567073126085487</v>
       </c>
       <c r="J18">
-        <v>4.365429208086359</v>
+        <v>10.00238808494644</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>83.74900462306361</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>45.5226857073149</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.52495195172954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>19.4779851401496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.33925333439904</v>
+        <v>28.37226976796862</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.203935368646343</v>
+        <v>2.508970537997239</v>
       </c>
       <c r="E19">
-        <v>5.677291941466604</v>
+        <v>26.76589938003147</v>
       </c>
       <c r="F19">
-        <v>27.42797005807606</v>
+        <v>27.18245948931966</v>
       </c>
       <c r="G19">
-        <v>2.011845687031417</v>
+        <v>39.66748395264133</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.355079688917771</v>
       </c>
       <c r="I19">
-        <v>37.03338498953465</v>
+        <v>2.554485117098951</v>
       </c>
       <c r="J19">
-        <v>4.377631500349661</v>
+        <v>10.41147892583367</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>83.47852690970711</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>45.32924578603193</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.44439237372955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>20.3773671542423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.67393647082742</v>
+        <v>28.91642397048742</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.160818485063905</v>
+        <v>2.281179092170296</v>
       </c>
       <c r="E20">
-        <v>5.596728413344914</v>
+        <v>36.72981096855779</v>
       </c>
       <c r="F20">
-        <v>27.89478117693625</v>
+        <v>29.41374269254153</v>
       </c>
       <c r="G20">
-        <v>2.008573046165395</v>
+        <v>43.39269820653492</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.275959306258734</v>
       </c>
       <c r="I20">
-        <v>37.69210259675609</v>
+        <v>2.632150952014016</v>
       </c>
       <c r="J20">
-        <v>4.32300590297603</v>
+        <v>11.21670011910263</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>85.08804631142091</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>46.19369036855676</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.80731955765576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>22.28098477411309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.76145031693343</v>
+        <v>30.6775968148569</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.017717069310759</v>
+        <v>2.332840755660176</v>
       </c>
       <c r="E21">
-        <v>5.336970823101591</v>
+        <v>39.57372567364283</v>
       </c>
       <c r="F21">
-        <v>29.47996146432898</v>
+        <v>31.42443454349621</v>
       </c>
       <c r="G21">
-        <v>1.997650799833929</v>
+        <v>46.39810325892545</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.652473993143921</v>
       </c>
       <c r="I21">
-        <v>39.85336661141912</v>
+        <v>2.887686022020177</v>
       </c>
       <c r="J21">
-        <v>4.144750283369778</v>
+        <v>11.80885338973472</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>90.18568523955349</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>48.99285437100945</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.19937269207357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>23.83243621482351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.4450636074459</v>
+        <v>31.77799867576358</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.925413269000174</v>
+        <v>2.376008484769446</v>
       </c>
       <c r="E22">
-        <v>5.176381164047196</v>
+        <v>40.93010792665159</v>
       </c>
       <c r="F22">
-        <v>30.59458279404639</v>
+        <v>32.61516141897989</v>
       </c>
       <c r="G22">
-        <v>1.990552313183066</v>
+        <v>48.15939008767696</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.872860374433418</v>
       </c>
       <c r="I22">
-        <v>41.22722665942577</v>
+        <v>3.04608517104812</v>
       </c>
       <c r="J22">
-        <v>4.032572127109194</v>
+        <v>12.15777632265156</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>93.18425791350997</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>50.74475305336146</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.1885012994257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>24.74192583961951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.08266156148942</v>
+        <v>31.19327424365959</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.974572055034844</v>
+        <v>2.35314494378762</v>
       </c>
       <c r="E23">
-        <v>5.261176361628057</v>
+        <v>40.21082312578637</v>
       </c>
       <c r="F23">
-        <v>29.96774133699904</v>
+        <v>31.98366827679436</v>
       </c>
       <c r="G23">
-        <v>1.994338272541079</v>
+        <v>47.22531560716783</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.755543742063645</v>
       </c>
       <c r="I23">
-        <v>40.49749574474599</v>
+        <v>2.95133010413082</v>
       </c>
       <c r="J23">
-        <v>4.092019841821734</v>
+        <v>11.97225215802023</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>91.38712135191037</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>49.81676303311051</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.6618457056484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>24.25963842951911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.65569739382404</v>
+        <v>28.88424622251212</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.163179383355549</v>
+        <v>2.262714114234934</v>
       </c>
       <c r="E24">
-        <v>5.60111379636281</v>
+        <v>37.38415487702425</v>
       </c>
       <c r="F24">
-        <v>27.86908292271467</v>
+        <v>29.50294487530883</v>
       </c>
       <c r="G24">
-        <v>2.008752452143611</v>
+        <v>43.55563378382656</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.304189965998743</v>
       </c>
       <c r="I24">
-        <v>37.65612414176608</v>
+        <v>2.611260814615723</v>
       </c>
       <c r="J24">
-        <v>4.325986677270297</v>
+        <v>11.25435408371167</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>84.6651633800618</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>46.14661745195226</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.78736305937707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>22.36376436357785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.99733676743208</v>
+        <v>26.182388850054</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.37246605531481</v>
+        <v>2.157133699284436</v>
       </c>
       <c r="E25">
-        <v>6.001034521305863</v>
+        <v>34.11346871640708</v>
       </c>
       <c r="F25">
-        <v>25.65959025440797</v>
+        <v>26.67967337940139</v>
       </c>
       <c r="G25">
-        <v>2.024564178039816</v>
+        <v>39.30854239459287</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.800642268843634</v>
       </c>
       <c r="I25">
-        <v>34.42564210819874</v>
+        <v>2.742911760467198</v>
       </c>
       <c r="J25">
-        <v>4.594626803902201</v>
+        <v>10.44895657665792</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>76.8744542187396</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.84906846606328</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.06047615873079</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>20.32833830186163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03951969628692</v>
+        <v>24.04110093463252</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.072646856124152</v>
+        <v>2.158834185931356</v>
       </c>
       <c r="E2">
-        <v>31.51251701979448</v>
+        <v>31.36879868473575</v>
       </c>
       <c r="F2">
-        <v>24.56165965671888</v>
+        <v>24.58384679904107</v>
       </c>
       <c r="G2">
-        <v>35.9267973137101</v>
+        <v>36.05283834739051</v>
       </c>
       <c r="H2">
-        <v>4.413919534380266</v>
+        <v>4.343860641141904</v>
       </c>
       <c r="I2">
-        <v>3.005390845382122</v>
+        <v>3.102319254819517</v>
       </c>
       <c r="J2">
-        <v>9.83149814950481</v>
+        <v>10.57540293462837</v>
       </c>
       <c r="K2">
-        <v>70.04831980844861</v>
+        <v>40.26914433335583</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>29.59801017355548</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>30.71468139066202</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>18.80947629602494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>18.86486619031071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47103589359181</v>
+        <v>22.47195615808963</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.011273384765137</v>
+        <v>2.093970646256772</v>
       </c>
       <c r="E3">
-        <v>29.62929689500078</v>
+        <v>29.49123596322077</v>
       </c>
       <c r="F3">
-        <v>23.04066960629008</v>
+        <v>23.07817040450029</v>
       </c>
       <c r="G3">
-        <v>33.49013665598645</v>
+        <v>33.55556807154417</v>
       </c>
       <c r="H3">
-        <v>4.141136017262474</v>
+        <v>4.075089649001476</v>
       </c>
       <c r="I3">
-        <v>3.192510874708861</v>
+        <v>3.215684869259357</v>
       </c>
       <c r="J3">
-        <v>9.399448728397596</v>
+        <v>10.16819176435983</v>
       </c>
       <c r="K3">
-        <v>65.44940052185392</v>
+        <v>37.68607595734141</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>27.31880880382043</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>29.0688017934621</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.7249640292932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>17.7930502569698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44996014040526</v>
+        <v>21.44831036159348</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.971595592722466</v>
+        <v>2.052075308965705</v>
       </c>
       <c r="E4">
-        <v>28.41373953811855</v>
+        <v>28.27900253114555</v>
       </c>
       <c r="F4">
-        <v>22.0654961429624</v>
+        <v>22.11271011066487</v>
       </c>
       <c r="G4">
-        <v>31.93724424972372</v>
+        <v>31.94067591207294</v>
       </c>
       <c r="H4">
-        <v>3.968141076107703</v>
+        <v>3.90458925824777</v>
       </c>
       <c r="I4">
-        <v>3.308238040789099</v>
+        <v>3.286613502937306</v>
       </c>
       <c r="J4">
-        <v>9.128193636010886</v>
+        <v>9.911630722839506</v>
       </c>
       <c r="K4">
-        <v>62.55294165479136</v>
+        <v>36.03380553955514</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>25.85993366964777</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>28.01808332727096</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.0328935374161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.10898790289309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0191248006034</v>
+        <v>21.01595753288554</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.954931188485111</v>
+        <v>2.034487954937354</v>
       </c>
       <c r="E5">
-        <v>27.90356262375301</v>
+        <v>27.77014379571128</v>
       </c>
       <c r="F5">
-        <v>21.65793092303546</v>
+        <v>21.70919147735956</v>
       </c>
       <c r="G5">
-        <v>31.28541122636794</v>
+        <v>31.26199982907015</v>
       </c>
       <c r="H5">
-        <v>3.89622832676626</v>
+        <v>3.833702160160696</v>
       </c>
       <c r="I5">
-        <v>3.357057364133082</v>
+        <v>3.318444430511923</v>
       </c>
       <c r="J5">
-        <v>9.016283131538131</v>
+        <v>9.805556049030029</v>
       </c>
       <c r="K5">
-        <v>61.41579519922216</v>
+        <v>35.38695166432476</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>25.28252613137009</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>27.61265428388707</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.7444962881794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.82391321140367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94660719316666</v>
+        <v>20.94323187709646</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.952134346290389</v>
+        <v>2.031536677932481</v>
       </c>
       <c r="E6">
-        <v>27.81795549951648</v>
+        <v>27.68475338745001</v>
       </c>
       <c r="F6">
-        <v>21.58964784109698</v>
+        <v>21.64158596557762</v>
       </c>
       <c r="G6">
-        <v>31.17602849022096</v>
+        <v>31.14806037527572</v>
       </c>
       <c r="H6">
-        <v>3.884200850900155</v>
+        <v>3.821845580196142</v>
       </c>
       <c r="I6">
-        <v>3.367086934272987</v>
+        <v>3.327116966868132</v>
       </c>
       <c r="J6">
-        <v>8.997621809765118</v>
+        <v>9.787854133215749</v>
       </c>
       <c r="K6">
-        <v>61.31282198545149</v>
+        <v>35.33068066718524</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>25.22414545557973</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>27.5846687908634</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.6962303968986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.77620275339821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44400016915299</v>
+        <v>21.44250429110938</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.971372848072053</v>
+        <v>2.054005222055239</v>
       </c>
       <c r="E7">
-        <v>28.40691902513552</v>
+        <v>28.27103240623739</v>
       </c>
       <c r="F7">
-        <v>22.06004045089546</v>
+        <v>22.08467339395257</v>
       </c>
       <c r="G7">
-        <v>31.92853030908462</v>
+        <v>32.03506907779531</v>
       </c>
       <c r="H7">
-        <v>3.96717700955433</v>
+        <v>3.903085215656749</v>
       </c>
       <c r="I7">
-        <v>3.31378638727711</v>
+        <v>3.295833493059101</v>
       </c>
       <c r="J7">
-        <v>9.126689739862357</v>
+        <v>9.840476874103338</v>
       </c>
       <c r="K7">
-        <v>62.77205030764391</v>
+        <v>36.16451624352388</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>25.95491388301225</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>28.11935055606657</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.02902959968149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>17.08551465374958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51060482620635</v>
+        <v>23.51248066458468</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.051902659387873</v>
+        <v>2.143945303188686</v>
       </c>
       <c r="E8">
-        <v>30.87551171780761</v>
+        <v>30.73024739583586</v>
       </c>
       <c r="F8">
-        <v>24.04589402848931</v>
+        <v>24.00351168739576</v>
       </c>
       <c r="G8">
-        <v>35.09754434051205</v>
+        <v>35.52347916991179</v>
       </c>
       <c r="H8">
-        <v>4.320986758575229</v>
+        <v>4.250585687263845</v>
       </c>
       <c r="I8">
-        <v>3.075717945874242</v>
+        <v>3.152079809021664</v>
       </c>
       <c r="J8">
-        <v>9.683840104137671</v>
+        <v>10.21504733220489</v>
       </c>
       <c r="K8">
-        <v>68.7835940212962</v>
+        <v>39.564506436028</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>28.95204751095711</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>30.28690385352529</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18.44107878545448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>18.43983001570152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.11809087931507</v>
+        <v>27.09717337378985</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.193758469364389</v>
+        <v>2.295653304531767</v>
       </c>
       <c r="E9">
-        <v>35.2450495340266</v>
+        <v>35.08430132017012</v>
       </c>
       <c r="F9">
-        <v>27.62587036344699</v>
+        <v>27.51815923659258</v>
       </c>
       <c r="G9">
-        <v>40.77835512480394</v>
+        <v>41.34292962178022</v>
       </c>
       <c r="H9">
-        <v>4.972639787590964</v>
+        <v>4.892045545610856</v>
       </c>
       <c r="I9">
-        <v>2.607337829569494</v>
+        <v>2.866600236733278</v>
       </c>
       <c r="J9">
-        <v>10.72423450015806</v>
+        <v>11.15033326922985</v>
       </c>
       <c r="K9">
-        <v>79.22058890756904</v>
+        <v>45.46289011891668</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>34.16781471431432</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>34.04057586572355</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20.99573808943829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>20.95519373843229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.52590840198576</v>
+        <v>29.44576208428608</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.310072501018853</v>
+        <v>2.429897529913782</v>
       </c>
       <c r="E10">
-        <v>37.29635707322597</v>
+        <v>37.11783092240991</v>
       </c>
       <c r="F10">
-        <v>30.03866108906345</v>
+        <v>29.7445259331409</v>
       </c>
       <c r="G10">
-        <v>44.30907731206317</v>
+        <v>45.4157046199526</v>
       </c>
       <c r="H10">
-        <v>5.385526929647921</v>
+        <v>5.295329030354249</v>
       </c>
       <c r="I10">
-        <v>2.694300863279516</v>
+        <v>2.668270858387227</v>
       </c>
       <c r="J10">
-        <v>11.39247492535364</v>
+        <v>11.40121116169923</v>
       </c>
       <c r="K10">
-        <v>86.33114078562375</v>
+        <v>49.5043152487297</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>37.71882263528229</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>36.63706263650962</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22.75496679192758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>22.47971682452474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.56501963939844</v>
+        <v>30.45336529123512</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.563663453215443</v>
+        <v>2.711774339842056</v>
       </c>
       <c r="E11">
-        <v>30.81223697021244</v>
+        <v>30.60962268050264</v>
       </c>
       <c r="F11">
-        <v>29.78429903360374</v>
+        <v>29.26702122588551</v>
       </c>
       <c r="G11">
-        <v>43.58311598726675</v>
+        <v>45.68150093055249</v>
       </c>
       <c r="H11">
-        <v>5.616659145951649</v>
+        <v>5.528116110345347</v>
       </c>
       <c r="I11">
-        <v>2.863409948912086</v>
+        <v>2.595889036013929</v>
       </c>
       <c r="J11">
-        <v>11.17674373362729</v>
+        <v>10.45139330225338</v>
       </c>
       <c r="K11">
-        <v>89.71136125585014</v>
+        <v>51.43308922396663</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>39.38621871487997</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>37.90132034154984</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22.39713327810053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>21.92543186874661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.94890444533592</v>
+        <v>30.82617262337245</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.767133435402345</v>
+        <v>2.930659090444172</v>
       </c>
       <c r="E12">
-        <v>25.05731502740487</v>
+        <v>24.83196939419338</v>
       </c>
       <c r="F12">
-        <v>29.0754691611019</v>
+        <v>28.45717537845054</v>
       </c>
       <c r="G12">
-        <v>42.24736429732412</v>
+        <v>44.80765450859563</v>
       </c>
       <c r="H12">
-        <v>6.237937671084402</v>
+        <v>6.159993323454827</v>
       </c>
       <c r="I12">
-        <v>2.920602483785713</v>
+        <v>2.56050760600478</v>
       </c>
       <c r="J12">
-        <v>10.84850170145483</v>
+        <v>9.804573874940292</v>
       </c>
       <c r="K12">
-        <v>90.8143682008233</v>
+        <v>52.0588753934657</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>39.93783024669915</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>38.3024686493339</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21.72326754345866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>21.16237423559823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.86632728123295</v>
+        <v>30.74625180252934</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.943809514685327</v>
+        <v>3.102419215943744</v>
       </c>
       <c r="E13">
-        <v>19.49624690559535</v>
+        <v>19.24471257712183</v>
       </c>
       <c r="F13">
-        <v>27.95062371099606</v>
+        <v>27.35934975870711</v>
       </c>
       <c r="G13">
-        <v>40.31767639658085</v>
+        <v>42.78202132254827</v>
       </c>
       <c r="H13">
-        <v>7.085888880659661</v>
+        <v>7.021637419982768</v>
       </c>
       <c r="I13">
-        <v>2.906780731808359</v>
+        <v>2.566314080210788</v>
       </c>
       <c r="J13">
-        <v>10.40524599824509</v>
+        <v>9.4774426703709</v>
       </c>
       <c r="K13">
-        <v>90.546897089683</v>
+        <v>51.90638383812425</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>39.80598852421839</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>38.20247448402385</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20.74356323316852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>20.20563108210539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.59665531019523</v>
+        <v>30.48420395699842</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.056828410694433</v>
+        <v>3.201378576624245</v>
       </c>
       <c r="E14">
-        <v>15.85806279836412</v>
+        <v>15.58272522598162</v>
       </c>
       <c r="F14">
-        <v>26.95979231451662</v>
+        <v>26.44371572883442</v>
       </c>
       <c r="G14">
-        <v>38.67195191279288</v>
+        <v>40.82376976037541</v>
       </c>
       <c r="H14">
-        <v>7.782501013475196</v>
+        <v>7.727652819409109</v>
       </c>
       <c r="I14">
-        <v>2.867465423457775</v>
+        <v>2.592203109730382</v>
       </c>
       <c r="J14">
-        <v>10.03791601949647</v>
+        <v>9.379151273540304</v>
       </c>
       <c r="K14">
-        <v>89.78932321383597</v>
+        <v>51.47700044073492</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>39.42602775868286</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>37.92850866834483</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19.90649323966064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>19.43375769394139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.4309102586133</v>
+        <v>30.3225893603508</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.077355927417608</v>
+        <v>3.21393390593384</v>
       </c>
       <c r="E15">
-        <v>15.01738713704774</v>
+        <v>14.73737667965272</v>
       </c>
       <c r="F15">
-        <v>26.62442171443513</v>
+        <v>26.15115645167347</v>
       </c>
       <c r="G15">
-        <v>38.1354380645318</v>
+        <v>40.1044424829981</v>
       </c>
       <c r="H15">
-        <v>7.943310175472848</v>
+        <v>7.891011693442213</v>
       </c>
       <c r="I15">
-        <v>2.846492030909852</v>
+        <v>2.611731864000819</v>
       </c>
       <c r="J15">
-        <v>9.923695739391185</v>
+        <v>9.410739860583519</v>
       </c>
       <c r="K15">
-        <v>89.384250240553</v>
+        <v>51.24893749524612</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>39.21892399607106</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>37.7876077250844</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19.63251974898982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>19.19705848323084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.46102307622637</v>
+        <v>29.37887625672976</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.997938480660388</v>
+        <v>3.098337995735189</v>
       </c>
       <c r="E16">
-        <v>14.87812078050915</v>
+        <v>14.61948343232898</v>
       </c>
       <c r="F16">
-        <v>25.76598784452766</v>
+        <v>25.49822608126543</v>
       </c>
       <c r="G16">
-        <v>36.91053950359841</v>
+        <v>37.98496374994092</v>
       </c>
       <c r="H16">
-        <v>7.660739409246655</v>
+        <v>7.612398203920296</v>
       </c>
       <c r="I16">
-        <v>2.708061172222736</v>
+        <v>2.701333241525482</v>
       </c>
       <c r="J16">
-        <v>9.708386443791598</v>
+        <v>9.864525209094108</v>
       </c>
       <c r="K16">
-        <v>86.6367325381926</v>
+        <v>49.69031687981186</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>37.84102141623067</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>36.79252319122158</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18.99672021100486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>18.77181749166834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.85101104749148</v>
+        <v>28.78437360282653</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.873301182057784</v>
+        <v>2.960063539566632</v>
       </c>
       <c r="E17">
-        <v>16.67373059312068</v>
+        <v>16.44288588637032</v>
       </c>
       <c r="F17">
-        <v>25.65108559226206</v>
+        <v>25.47473842591391</v>
       </c>
       <c r="G17">
-        <v>36.87753641026156</v>
+        <v>37.54716274798597</v>
       </c>
       <c r="H17">
-        <v>7.024769438298595</v>
+        <v>6.974552868124182</v>
       </c>
       <c r="I17">
-        <v>2.623905086322607</v>
+        <v>2.756828564372523</v>
       </c>
       <c r="J17">
-        <v>9.745272924165569</v>
+        <v>10.18613495202213</v>
       </c>
       <c r="K17">
-        <v>84.91638599100503</v>
+        <v>48.71433131431506</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>36.97713587435679</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>36.17066460407916</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18.969505310182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>18.88681329787563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.49337206267155</v>
+        <v>28.43664851506478</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.700110207342719</v>
+        <v>2.784997895143578</v>
       </c>
       <c r="E18">
-        <v>20.80424627189185</v>
+        <v>20.60428303897873</v>
       </c>
       <c r="F18">
-        <v>26.17968766275382</v>
+        <v>26.04334340192398</v>
       </c>
       <c r="G18">
-        <v>37.89277141949445</v>
+        <v>38.37972569354368</v>
       </c>
       <c r="H18">
-        <v>6.12443301700185</v>
+        <v>6.066416957322667</v>
       </c>
       <c r="I18">
-        <v>2.567073126085487</v>
+        <v>2.779361745601738</v>
       </c>
       <c r="J18">
-        <v>10.00238808494644</v>
+        <v>10.55207049717566</v>
       </c>
       <c r="K18">
-        <v>83.74900462306361</v>
+        <v>48.04792798025661</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>36.40092411624597</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>35.73429275315294</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19.4779851401496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>19.45969789180733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.37226976796862</v>
+        <v>28.31795854695848</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.508970537997239</v>
+        <v>2.598745910320555</v>
       </c>
       <c r="E19">
-        <v>26.76589938003147</v>
+        <v>26.58788098563357</v>
       </c>
       <c r="F19">
-        <v>27.18245948931966</v>
+        <v>27.05302377862494</v>
       </c>
       <c r="G19">
-        <v>39.66748395264133</v>
+        <v>40.09860378812065</v>
       </c>
       <c r="H19">
-        <v>5.355079688917771</v>
+        <v>5.284669575618008</v>
       </c>
       <c r="I19">
-        <v>2.554485117098951</v>
+        <v>2.794314869528643</v>
       </c>
       <c r="J19">
-        <v>10.41147892583367</v>
+        <v>10.97379971887301</v>
       </c>
       <c r="K19">
-        <v>83.47852690970711</v>
+        <v>47.89632765149284</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>36.26050279707636</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>35.64318194640022</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20.3773671542423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>20.36129538955688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.91642397048742</v>
+        <v>28.84824954763209</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.281179092170296</v>
+        <v>2.388934936791541</v>
       </c>
       <c r="E20">
-        <v>36.72981096855779</v>
+        <v>36.55906746397407</v>
       </c>
       <c r="F20">
-        <v>29.41374269254153</v>
+        <v>29.21643920942894</v>
       </c>
       <c r="G20">
-        <v>43.39269820653492</v>
+        <v>44.08323787393486</v>
       </c>
       <c r="H20">
-        <v>5.275959306258734</v>
+        <v>5.189874884382642</v>
       </c>
       <c r="I20">
-        <v>2.632150952014016</v>
+        <v>2.750135631473576</v>
       </c>
       <c r="J20">
-        <v>11.21670011910263</v>
+        <v>11.54622527942085</v>
       </c>
       <c r="K20">
-        <v>85.08804631142091</v>
+        <v>48.81138851086882</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>37.06417201242898</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>36.2315128370339</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22.28098477411309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>22.11335195634165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.6775968148569</v>
+        <v>30.5614940168969</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.332840755660176</v>
+        <v>2.493497949174745</v>
       </c>
       <c r="E21">
-        <v>39.57372567364283</v>
+        <v>39.37447885174311</v>
       </c>
       <c r="F21">
-        <v>31.42443454349621</v>
+        <v>30.80835774616327</v>
       </c>
       <c r="G21">
-        <v>46.39810325892545</v>
+        <v>48.89727890718284</v>
       </c>
       <c r="H21">
-        <v>5.652473993143921</v>
+        <v>5.550476173876458</v>
       </c>
       <c r="I21">
-        <v>2.887686022020177</v>
+        <v>2.595060600504259</v>
       </c>
       <c r="J21">
-        <v>11.80885338973472</v>
+        <v>10.7269164261044</v>
       </c>
       <c r="K21">
-        <v>90.18568523955349</v>
+        <v>51.70602866140358</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>39.61402082554029</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>38.08735987819346</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23.83243621482351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>23.27463429838652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.77799867576358</v>
+        <v>31.63042662556881</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.376008484769446</v>
+        <v>2.574311131037597</v>
       </c>
       <c r="E22">
-        <v>40.93010792665159</v>
+        <v>40.71216233159273</v>
       </c>
       <c r="F22">
-        <v>32.61516141897989</v>
+        <v>31.71686820260462</v>
       </c>
       <c r="G22">
-        <v>48.15939008767696</v>
+        <v>51.87745220317315</v>
       </c>
       <c r="H22">
-        <v>5.872860374433418</v>
+        <v>5.760784566142794</v>
       </c>
       <c r="I22">
-        <v>3.04608517104812</v>
+        <v>2.53790486349659</v>
       </c>
       <c r="J22">
-        <v>12.15777632265156</v>
+        <v>10.10487956163105</v>
       </c>
       <c r="K22">
-        <v>93.18425791350997</v>
+        <v>53.40228480930082</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>41.12257178706462</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>39.19182060407414</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24.74192583961951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>23.93670349388289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.19327424365959</v>
+        <v>31.06442025032916</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.35314494378762</v>
+        <v>2.525826947005363</v>
       </c>
       <c r="E23">
-        <v>40.21082312578637</v>
+        <v>40.00469797283852</v>
       </c>
       <c r="F23">
-        <v>31.98366827679436</v>
+        <v>31.27865228911791</v>
       </c>
       <c r="G23">
-        <v>47.22531560716783</v>
+        <v>50.10461629116476</v>
       </c>
       <c r="H23">
-        <v>5.755543742063645</v>
+        <v>5.649794955182007</v>
       </c>
       <c r="I23">
-        <v>2.95133010413082</v>
+        <v>2.530020984283609</v>
       </c>
       <c r="J23">
-        <v>11.97225215802023</v>
+        <v>10.58519192215141</v>
       </c>
       <c r="K23">
-        <v>91.38712135191037</v>
+        <v>52.38047194729586</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>40.2322206610062</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>38.50354430454686</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24.25963842951911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>23.62397058299243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.88424622251212</v>
+        <v>28.81929208043877</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.262714114234934</v>
+        <v>2.370626954278069</v>
       </c>
       <c r="E24">
-        <v>37.38415487702425</v>
+        <v>37.2140872108605</v>
       </c>
       <c r="F24">
-        <v>29.50294487530883</v>
+        <v>29.30897303121237</v>
       </c>
       <c r="G24">
-        <v>43.55563378382656</v>
+        <v>44.22970532714107</v>
       </c>
       <c r="H24">
-        <v>5.304189965998743</v>
+        <v>5.21794676868562</v>
       </c>
       <c r="I24">
-        <v>2.611260814615723</v>
+        <v>2.733997186527743</v>
       </c>
       <c r="J24">
-        <v>11.25435408371167</v>
+        <v>11.59417990325053</v>
       </c>
       <c r="K24">
-        <v>84.6651633800618</v>
+        <v>48.56286390895793</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>36.87302669105424</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>36.04806680493459</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22.36376436357785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>22.19815101460943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.182388850054</v>
+        <v>26.17781287942753</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.157133699284436</v>
+        <v>2.253499529841064</v>
       </c>
       <c r="E25">
-        <v>34.11346871640708</v>
+        <v>33.95843230444463</v>
       </c>
       <c r="F25">
-        <v>26.67967337940139</v>
+        <v>26.63080694385947</v>
       </c>
       <c r="G25">
-        <v>39.30854239459287</v>
+        <v>39.71499478660508</v>
       </c>
       <c r="H25">
-        <v>4.800642268843634</v>
+        <v>4.723481409973695</v>
       </c>
       <c r="I25">
-        <v>2.742911760467198</v>
+        <v>2.958682043903358</v>
       </c>
       <c r="J25">
-        <v>10.44895657665792</v>
+        <v>10.99313509092498</v>
       </c>
       <c r="K25">
-        <v>76.8744542187396</v>
+        <v>44.14167653325602</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>32.97116878506856</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>33.22389382932773</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20.32833830186163</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>20.32227305487465</v>
       </c>
     </row>
   </sheetData>
